--- a/clients_microfinance.xlsx
+++ b/clients_microfinance.xlsx
@@ -487,22 +487,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
-        <v>847555</v>
+        <v>909577</v>
       </c>
       <c r="C2" t="n">
-        <v>55747</v>
+        <v>349438</v>
       </c>
       <c r="D2" t="n">
-        <v>554266</v>
+        <v>392097</v>
       </c>
       <c r="E2" t="n">
-        <v>601825</v>
+        <v>4242942</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -523,98 +523,98 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>207725</v>
+        <v>349860</v>
       </c>
       <c r="C3" t="n">
-        <v>30200</v>
+        <v>197174</v>
       </c>
       <c r="D3" t="n">
-        <v>124267</v>
+        <v>106880</v>
       </c>
       <c r="E3" t="n">
-        <v>766072</v>
+        <v>851796</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>346142</v>
+        <v>618230</v>
       </c>
       <c r="C4" t="n">
-        <v>52834</v>
+        <v>261450</v>
       </c>
       <c r="D4" t="n">
-        <v>205316</v>
+        <v>249746</v>
       </c>
       <c r="E4" t="n">
-        <v>402624</v>
+        <v>6673166</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>400311</v>
+        <v>410809</v>
       </c>
       <c r="C5" t="n">
-        <v>151447</v>
+        <v>75314</v>
       </c>
       <c r="D5" t="n">
-        <v>174205</v>
+        <v>234846</v>
       </c>
       <c r="E5" t="n">
-        <v>859779</v>
+        <v>299504</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -626,31 +626,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>450081</v>
+        <v>392663</v>
       </c>
       <c r="C6" t="n">
-        <v>43125</v>
+        <v>245349</v>
       </c>
       <c r="D6" t="n">
-        <v>284869</v>
+        <v>103120</v>
       </c>
       <c r="E6" t="n">
-        <v>4614356</v>
+        <v>872621</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -662,27 +662,27 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B7" t="n">
-        <v>867137</v>
+        <v>927969</v>
       </c>
       <c r="C7" t="n">
-        <v>401621</v>
+        <v>275240</v>
       </c>
       <c r="D7" t="n">
-        <v>325861</v>
+        <v>456910</v>
       </c>
       <c r="E7" t="n">
-        <v>4637602</v>
+        <v>12350489</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -691,11 +691,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -703,22 +703,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>767122</v>
+        <v>100897</v>
       </c>
       <c r="C8" t="n">
-        <v>386236</v>
+        <v>26907</v>
       </c>
       <c r="D8" t="n">
-        <v>266620</v>
+        <v>51793</v>
       </c>
       <c r="E8" t="n">
-        <v>5023705</v>
+        <v>357891</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -739,26 +739,26 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>465740</v>
+        <v>453961</v>
       </c>
       <c r="C9" t="n">
-        <v>58659</v>
+        <v>144259</v>
       </c>
       <c r="D9" t="n">
-        <v>284957</v>
+        <v>216791</v>
       </c>
       <c r="E9" t="n">
-        <v>230012</v>
+        <v>2040418</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -770,63 +770,63 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>516229</v>
+        <v>766027</v>
       </c>
       <c r="C10" t="n">
-        <v>349177</v>
+        <v>515252</v>
       </c>
       <c r="D10" t="n">
-        <v>116936</v>
+        <v>175542</v>
       </c>
       <c r="E10" t="n">
-        <v>1449326</v>
+        <v>137549</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>966496</v>
+        <v>331531</v>
       </c>
       <c r="C11" t="n">
-        <v>640531</v>
+        <v>168862</v>
       </c>
       <c r="D11" t="n">
-        <v>228176</v>
+        <v>113868</v>
       </c>
       <c r="E11" t="n">
-        <v>1209929</v>
+        <v>913044</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -847,26 +847,26 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>246097</v>
+        <v>261182</v>
       </c>
       <c r="C12" t="n">
-        <v>79680</v>
+        <v>155279</v>
       </c>
       <c r="D12" t="n">
-        <v>116492</v>
+        <v>74132</v>
       </c>
       <c r="E12" t="n">
-        <v>392143</v>
+        <v>512830</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -878,31 +878,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>610013</v>
+        <v>625779</v>
       </c>
       <c r="C13" t="n">
-        <v>320140</v>
+        <v>142359</v>
       </c>
       <c r="D13" t="n">
-        <v>202911</v>
+        <v>338394</v>
       </c>
       <c r="E13" t="n">
-        <v>1366066</v>
+        <v>3917834</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -914,103 +914,103 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
-        <v>908308</v>
+        <v>563386</v>
       </c>
       <c r="C14" t="n">
-        <v>200521</v>
+        <v>113438</v>
       </c>
       <c r="D14" t="n">
-        <v>495451</v>
+        <v>314964</v>
       </c>
       <c r="E14" t="n">
-        <v>14125564</v>
+        <v>4314111</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>733844</v>
+        <v>257659</v>
       </c>
       <c r="C15" t="n">
-        <v>308377</v>
+        <v>32439</v>
       </c>
       <c r="D15" t="n">
-        <v>297827</v>
+        <v>157654</v>
       </c>
       <c r="E15" t="n">
-        <v>516366</v>
+        <v>4099214</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>737204</v>
+        <v>494878</v>
       </c>
       <c r="C16" t="n">
-        <v>252882</v>
+        <v>59510</v>
       </c>
       <c r="D16" t="n">
-        <v>339025</v>
+        <v>304758</v>
       </c>
       <c r="E16" t="n">
-        <v>10828050</v>
+        <v>2506338</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1022,63 +1022,63 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>747969</v>
+        <v>633452</v>
       </c>
       <c r="C17" t="n">
-        <v>79512</v>
+        <v>274875</v>
       </c>
       <c r="D17" t="n">
-        <v>467920</v>
+        <v>251004</v>
       </c>
       <c r="E17" t="n">
-        <v>11534964</v>
+        <v>1282447</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>581760</v>
+        <v>861992</v>
       </c>
       <c r="C18" t="n">
-        <v>232714</v>
+        <v>237635</v>
       </c>
       <c r="D18" t="n">
-        <v>244332</v>
+        <v>437050</v>
       </c>
       <c r="E18" t="n">
-        <v>2898243</v>
+        <v>3552703</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1099,22 +1099,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>266602</v>
+        <v>866765</v>
       </c>
       <c r="C19" t="n">
-        <v>177701</v>
+        <v>132815</v>
       </c>
       <c r="D19" t="n">
-        <v>62231</v>
+        <v>513765</v>
       </c>
       <c r="E19" t="n">
-        <v>172111</v>
+        <v>1719617</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1135,26 +1135,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>357007</v>
+        <v>721358</v>
       </c>
       <c r="C20" t="n">
-        <v>22042</v>
+        <v>334135</v>
       </c>
       <c r="D20" t="n">
-        <v>234475</v>
+        <v>271056</v>
       </c>
       <c r="E20" t="n">
-        <v>1297865</v>
+        <v>3359908</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1166,67 +1166,67 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>906903</v>
+        <v>952376</v>
       </c>
       <c r="C21" t="n">
-        <v>469639</v>
+        <v>218207</v>
       </c>
       <c r="D21" t="n">
-        <v>306085</v>
+        <v>513918</v>
       </c>
       <c r="E21" t="n">
-        <v>8063386</v>
+        <v>4949343</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B22" t="n">
-        <v>463892</v>
+        <v>781613</v>
       </c>
       <c r="C22" t="n">
-        <v>31938</v>
+        <v>210545</v>
       </c>
       <c r="D22" t="n">
-        <v>302368</v>
+        <v>399748</v>
       </c>
       <c r="E22" t="n">
-        <v>1276684</v>
+        <v>1201582</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1238,31 +1238,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>246480</v>
+        <v>851617</v>
       </c>
       <c r="C23" t="n">
-        <v>138268</v>
+        <v>238780</v>
       </c>
       <c r="D23" t="n">
-        <v>75748</v>
+        <v>428986</v>
       </c>
       <c r="E23" t="n">
-        <v>615505</v>
+        <v>1058974</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1274,99 +1274,99 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>262274</v>
+        <v>410586</v>
       </c>
       <c r="C24" t="n">
-        <v>23678</v>
+        <v>217833</v>
       </c>
       <c r="D24" t="n">
-        <v>167017</v>
+        <v>134927</v>
       </c>
       <c r="E24" t="n">
-        <v>2321684</v>
+        <v>3251292</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B25" t="n">
-        <v>527173</v>
+        <v>374106</v>
       </c>
       <c r="C25" t="n">
-        <v>83051</v>
+        <v>83342</v>
       </c>
       <c r="D25" t="n">
-        <v>310885</v>
+        <v>203535</v>
       </c>
       <c r="E25" t="n">
-        <v>1630131</v>
+        <v>4849970</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>262410</v>
+        <v>145619</v>
       </c>
       <c r="C26" t="n">
-        <v>160490</v>
+        <v>48087</v>
       </c>
       <c r="D26" t="n">
-        <v>71344</v>
+        <v>68272</v>
       </c>
       <c r="E26" t="n">
-        <v>103433</v>
+        <v>1009965</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1375,11 +1375,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1387,26 +1387,26 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>928336</v>
+        <v>610474</v>
       </c>
       <c r="C27" t="n">
-        <v>603859</v>
+        <v>102070</v>
       </c>
       <c r="D27" t="n">
-        <v>227134</v>
+        <v>355883</v>
       </c>
       <c r="E27" t="n">
-        <v>1188645</v>
+        <v>4719408</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1418,63 +1418,63 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>417536</v>
+        <v>616393</v>
       </c>
       <c r="C28" t="n">
-        <v>99019</v>
+        <v>42664</v>
       </c>
       <c r="D28" t="n">
-        <v>222962</v>
+        <v>401610</v>
       </c>
       <c r="E28" t="n">
-        <v>4425075</v>
+        <v>1957118</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>978450</v>
+        <v>773545</v>
       </c>
       <c r="C29" t="n">
-        <v>227876</v>
+        <v>379675</v>
       </c>
       <c r="D29" t="n">
-        <v>525402</v>
+        <v>275709</v>
       </c>
       <c r="E29" t="n">
-        <v>11724770</v>
+        <v>2475349</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1483,11 +1483,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1495,58 +1495,58 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>438613</v>
+        <v>148700</v>
       </c>
       <c r="C30" t="n">
-        <v>243712</v>
+        <v>45269</v>
       </c>
       <c r="D30" t="n">
-        <v>136431</v>
+        <v>72402</v>
       </c>
       <c r="E30" t="n">
-        <v>3045265</v>
+        <v>357135</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>802659</v>
+        <v>130783</v>
       </c>
       <c r="C31" t="n">
-        <v>509718</v>
+        <v>82152</v>
       </c>
       <c r="D31" t="n">
-        <v>205059</v>
+        <v>34042</v>
       </c>
       <c r="E31" t="n">
-        <v>5647547</v>
+        <v>261809</v>
       </c>
       <c r="F31" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
@@ -1567,58 +1567,58 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>320727</v>
+        <v>775607</v>
       </c>
       <c r="C32" t="n">
-        <v>31455</v>
+        <v>192008</v>
       </c>
       <c r="D32" t="n">
-        <v>202490</v>
+        <v>408519</v>
       </c>
       <c r="E32" t="n">
-        <v>4532064</v>
+        <v>1547140</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>802558</v>
+        <v>865484</v>
       </c>
       <c r="C33" t="n">
-        <v>522244</v>
+        <v>479720</v>
       </c>
       <c r="D33" t="n">
-        <v>196220</v>
+        <v>270035</v>
       </c>
       <c r="E33" t="n">
-        <v>930614</v>
+        <v>5063240</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1639,62 +1639,62 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>273899</v>
+        <v>693791</v>
       </c>
       <c r="C34" t="n">
-        <v>145813</v>
+        <v>254994</v>
       </c>
       <c r="D34" t="n">
-        <v>89660</v>
+        <v>307158</v>
       </c>
       <c r="E34" t="n">
-        <v>278570</v>
+        <v>2723164</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
-        <v>432085</v>
+        <v>703293</v>
       </c>
       <c r="C35" t="n">
-        <v>139688</v>
+        <v>33081</v>
       </c>
       <c r="D35" t="n">
-        <v>204678</v>
+        <v>469148</v>
       </c>
       <c r="E35" t="n">
-        <v>2717253</v>
+        <v>15188938</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1706,27 +1706,27 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>587390</v>
+        <v>717109</v>
       </c>
       <c r="C36" t="n">
-        <v>28894</v>
+        <v>27363</v>
       </c>
       <c r="D36" t="n">
-        <v>390947</v>
+        <v>482822</v>
       </c>
       <c r="E36" t="n">
-        <v>3037388</v>
+        <v>4573238</v>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1747,26 +1747,26 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B37" t="n">
-        <v>361078</v>
+        <v>495665</v>
       </c>
       <c r="C37" t="n">
-        <v>241792</v>
+        <v>302017</v>
       </c>
       <c r="D37" t="n">
-        <v>83500</v>
+        <v>135554</v>
       </c>
       <c r="E37" t="n">
-        <v>901423</v>
+        <v>1768905</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1778,31 +1778,31 @@
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>421571</v>
+        <v>801577</v>
       </c>
       <c r="C38" t="n">
-        <v>151280</v>
+        <v>292332</v>
       </c>
       <c r="D38" t="n">
-        <v>189204</v>
+        <v>356472</v>
       </c>
       <c r="E38" t="n">
-        <v>1702760</v>
+        <v>201034</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1814,31 +1814,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>963337</v>
+        <v>592978</v>
       </c>
       <c r="C39" t="n">
-        <v>662546</v>
+        <v>411854</v>
       </c>
       <c r="D39" t="n">
-        <v>210554</v>
+        <v>126787</v>
       </c>
       <c r="E39" t="n">
-        <v>887528</v>
+        <v>1825031</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1850,27 +1850,27 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B40" t="n">
-        <v>252227</v>
+        <v>529472</v>
       </c>
       <c r="C40" t="n">
-        <v>27191</v>
+        <v>161152</v>
       </c>
       <c r="D40" t="n">
-        <v>157525</v>
+        <v>257824</v>
       </c>
       <c r="E40" t="n">
-        <v>1832197</v>
+        <v>1526655</v>
       </c>
       <c r="F40" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1891,62 +1891,62 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>460413</v>
+        <v>309428</v>
       </c>
       <c r="C41" t="n">
-        <v>94803</v>
+        <v>38536</v>
       </c>
       <c r="D41" t="n">
-        <v>255927</v>
+        <v>189624</v>
       </c>
       <c r="E41" t="n">
-        <v>3698728</v>
+        <v>1102324</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42" t="n">
-        <v>776526</v>
+        <v>323789</v>
       </c>
       <c r="C42" t="n">
-        <v>504987</v>
+        <v>125968</v>
       </c>
       <c r="D42" t="n">
-        <v>190077</v>
+        <v>138475</v>
       </c>
       <c r="E42" t="n">
-        <v>829438</v>
+        <v>1514901</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1958,27 +1958,27 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B43" t="n">
-        <v>223671</v>
+        <v>803396</v>
       </c>
       <c r="C43" t="n">
-        <v>120458</v>
+        <v>367312</v>
       </c>
       <c r="D43" t="n">
-        <v>72249</v>
+        <v>305259</v>
       </c>
       <c r="E43" t="n">
-        <v>396260</v>
+        <v>8806207</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1987,11 +1987,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -1999,22 +1999,22 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" t="n">
-        <v>513140</v>
+        <v>890565</v>
       </c>
       <c r="C44" t="n">
-        <v>181712</v>
+        <v>542919</v>
       </c>
       <c r="D44" t="n">
-        <v>232000</v>
+        <v>243352</v>
       </c>
       <c r="E44" t="n">
-        <v>1190485</v>
+        <v>2212536</v>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2035,58 +2035,58 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>799241</v>
+        <v>992756</v>
       </c>
       <c r="C45" t="n">
-        <v>322803</v>
+        <v>539256</v>
       </c>
       <c r="D45" t="n">
-        <v>333507</v>
+        <v>317450</v>
       </c>
       <c r="E45" t="n">
-        <v>9242739</v>
+        <v>6269073</v>
       </c>
       <c r="F45" t="n">
         <v>23</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B46" t="n">
-        <v>245123</v>
+        <v>965452</v>
       </c>
       <c r="C46" t="n">
-        <v>31471</v>
+        <v>360738</v>
       </c>
       <c r="D46" t="n">
-        <v>149556</v>
+        <v>423300</v>
       </c>
       <c r="E46" t="n">
-        <v>1767707</v>
+        <v>1876722</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2095,11 +2095,11 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>2</v>
@@ -2107,26 +2107,26 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>119388</v>
+        <v>438898</v>
       </c>
       <c r="C47" t="n">
-        <v>53027</v>
+        <v>71108</v>
       </c>
       <c r="D47" t="n">
-        <v>46453</v>
+        <v>257453</v>
       </c>
       <c r="E47" t="n">
-        <v>130501</v>
+        <v>267614</v>
       </c>
       <c r="F47" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2138,27 +2138,27 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>809979</v>
+        <v>669651</v>
       </c>
       <c r="C48" t="n">
-        <v>88104</v>
+        <v>115814</v>
       </c>
       <c r="D48" t="n">
-        <v>505312</v>
+        <v>387686</v>
       </c>
       <c r="E48" t="n">
-        <v>2901945</v>
+        <v>1059656</v>
       </c>
       <c r="F48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2179,58 +2179,58 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B49" t="n">
-        <v>504382</v>
+        <v>782802</v>
       </c>
       <c r="C49" t="n">
-        <v>87124</v>
+        <v>477719</v>
       </c>
       <c r="D49" t="n">
-        <v>292081</v>
+        <v>213558</v>
       </c>
       <c r="E49" t="n">
-        <v>4135741</v>
+        <v>817082</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" t="n">
-        <v>394121</v>
+        <v>338128</v>
       </c>
       <c r="C50" t="n">
-        <v>83555</v>
+        <v>172074</v>
       </c>
       <c r="D50" t="n">
-        <v>217396</v>
+        <v>116238</v>
       </c>
       <c r="E50" t="n">
-        <v>2049333</v>
+        <v>1010126</v>
       </c>
       <c r="F50" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2251,62 +2251,62 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>957813</v>
+        <v>241514</v>
       </c>
       <c r="C51" t="n">
-        <v>573732</v>
+        <v>101051</v>
       </c>
       <c r="D51" t="n">
-        <v>268857</v>
+        <v>98324</v>
       </c>
       <c r="E51" t="n">
-        <v>4523128</v>
+        <v>239677</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B52" t="n">
-        <v>588663</v>
+        <v>599788</v>
       </c>
       <c r="C52" t="n">
-        <v>120488</v>
+        <v>367863</v>
       </c>
       <c r="D52" t="n">
-        <v>327722</v>
+        <v>162348</v>
       </c>
       <c r="E52" t="n">
-        <v>138147</v>
+        <v>686353</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2326,59 +2326,59 @@
         <v>41</v>
       </c>
       <c r="B53" t="n">
-        <v>674776</v>
+        <v>120288</v>
       </c>
       <c r="C53" t="n">
-        <v>370321</v>
+        <v>42127</v>
       </c>
       <c r="D53" t="n">
-        <v>213118</v>
+        <v>54713</v>
       </c>
       <c r="E53" t="n">
-        <v>6309045</v>
+        <v>267904</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B54" t="n">
-        <v>465984</v>
+        <v>851652</v>
       </c>
       <c r="C54" t="n">
-        <v>152851</v>
+        <v>43315</v>
       </c>
       <c r="D54" t="n">
-        <v>219193</v>
+        <v>565836</v>
       </c>
       <c r="E54" t="n">
-        <v>4050309</v>
+        <v>8116716</v>
       </c>
       <c r="F54" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2390,31 +2390,31 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B55" t="n">
-        <v>724453</v>
+        <v>792331</v>
       </c>
       <c r="C55" t="n">
-        <v>259564</v>
+        <v>377846</v>
       </c>
       <c r="D55" t="n">
-        <v>325422</v>
+        <v>290140</v>
       </c>
       <c r="E55" t="n">
-        <v>164880</v>
+        <v>4602102</v>
       </c>
       <c r="F55" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2426,99 +2426,99 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B56" t="n">
-        <v>397353</v>
+        <v>646603</v>
       </c>
       <c r="C56" t="n">
-        <v>253246</v>
+        <v>325705</v>
       </c>
       <c r="D56" t="n">
-        <v>100875</v>
+        <v>224629</v>
       </c>
       <c r="E56" t="n">
-        <v>470639</v>
+        <v>3717742</v>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" t="n">
-        <v>176117</v>
+        <v>162447</v>
       </c>
       <c r="C57" t="n">
-        <v>105456</v>
+        <v>110110</v>
       </c>
       <c r="D57" t="n">
-        <v>49463</v>
+        <v>36636</v>
       </c>
       <c r="E57" t="n">
-        <v>218016</v>
+        <v>794019</v>
       </c>
       <c r="F57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B58" t="n">
-        <v>618594</v>
+        <v>652364</v>
       </c>
       <c r="C58" t="n">
-        <v>380381</v>
+        <v>445399</v>
       </c>
       <c r="D58" t="n">
-        <v>166749</v>
+        <v>144876</v>
       </c>
       <c r="E58" t="n">
-        <v>2637745</v>
+        <v>4978372</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2539,26 +2539,26 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B59" t="n">
-        <v>242036</v>
+        <v>499033</v>
       </c>
       <c r="C59" t="n">
-        <v>163979</v>
+        <v>94255</v>
       </c>
       <c r="D59" t="n">
-        <v>54640</v>
+        <v>283345</v>
       </c>
       <c r="E59" t="n">
-        <v>358418</v>
+        <v>1249447</v>
       </c>
       <c r="F59" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2570,24 +2570,24 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B60" t="n">
-        <v>817343</v>
+        <v>475292</v>
       </c>
       <c r="C60" t="n">
-        <v>178184</v>
+        <v>99069</v>
       </c>
       <c r="D60" t="n">
-        <v>447411</v>
+        <v>263356</v>
       </c>
       <c r="E60" t="n">
-        <v>8320747</v>
+        <v>3813506</v>
       </c>
       <c r="F60" t="n">
         <v>19</v>
@@ -2611,26 +2611,26 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B61" t="n">
-        <v>633437</v>
+        <v>165697</v>
       </c>
       <c r="C61" t="n">
-        <v>347486</v>
+        <v>73507</v>
       </c>
       <c r="D61" t="n">
-        <v>200166</v>
+        <v>64533</v>
       </c>
       <c r="E61" t="n">
-        <v>1055755</v>
+        <v>199520</v>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2642,27 +2642,27 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B62" t="n">
-        <v>930063</v>
+        <v>984206</v>
       </c>
       <c r="C62" t="n">
-        <v>148182</v>
+        <v>213224</v>
       </c>
       <c r="D62" t="n">
-        <v>547317</v>
+        <v>539687</v>
       </c>
       <c r="E62" t="n">
-        <v>9789970</v>
+        <v>10498022</v>
       </c>
       <c r="F62" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2671,11 +2671,11 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
@@ -2683,58 +2683,58 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B63" t="n">
-        <v>680099</v>
+        <v>485473</v>
       </c>
       <c r="C63" t="n">
-        <v>333698</v>
+        <v>231502</v>
       </c>
       <c r="D63" t="n">
-        <v>242481</v>
+        <v>177780</v>
       </c>
       <c r="E63" t="n">
-        <v>3137292</v>
+        <v>1251882</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B64" t="n">
-        <v>607846</v>
+        <v>776739</v>
       </c>
       <c r="C64" t="n">
-        <v>298283</v>
+        <v>358860</v>
       </c>
       <c r="D64" t="n">
-        <v>216694</v>
+        <v>292515</v>
       </c>
       <c r="E64" t="n">
-        <v>1576460</v>
+        <v>1140312</v>
       </c>
       <c r="F64" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B65" t="n">
-        <v>266697</v>
+        <v>738451</v>
       </c>
       <c r="C65" t="n">
-        <v>41446</v>
+        <v>56108</v>
       </c>
       <c r="D65" t="n">
-        <v>157676</v>
+        <v>477640</v>
       </c>
       <c r="E65" t="n">
-        <v>221665</v>
+        <v>2106247</v>
       </c>
       <c r="F65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2791,58 +2791,58 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B66" t="n">
-        <v>146857</v>
+        <v>231771</v>
       </c>
       <c r="C66" t="n">
-        <v>41573</v>
+        <v>102170</v>
       </c>
       <c r="D66" t="n">
-        <v>73699</v>
+        <v>90721</v>
       </c>
       <c r="E66" t="n">
-        <v>977581</v>
+        <v>1305102</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B67" t="n">
-        <v>546703</v>
+        <v>555250</v>
       </c>
       <c r="C67" t="n">
-        <v>67588</v>
+        <v>39992</v>
       </c>
       <c r="D67" t="n">
-        <v>335380</v>
+        <v>360681</v>
       </c>
       <c r="E67" t="n">
-        <v>3091071</v>
+        <v>4907414</v>
       </c>
       <c r="F67" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2863,26 +2863,26 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B68" t="n">
-        <v>809643</v>
+        <v>796742</v>
       </c>
       <c r="C68" t="n">
-        <v>21964</v>
+        <v>258822</v>
       </c>
       <c r="D68" t="n">
-        <v>551375</v>
+        <v>376544</v>
       </c>
       <c r="E68" t="n">
-        <v>849264</v>
+        <v>1077436</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2894,31 +2894,31 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B69" t="n">
-        <v>122147</v>
+        <v>723316</v>
       </c>
       <c r="C69" t="n">
-        <v>68419</v>
+        <v>222353</v>
       </c>
       <c r="D69" t="n">
-        <v>37610</v>
+        <v>350674</v>
       </c>
       <c r="E69" t="n">
-        <v>548536</v>
+        <v>6134312</v>
       </c>
       <c r="F69" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2930,31 +2930,31 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>722033</v>
+        <v>659527</v>
       </c>
       <c r="C70" t="n">
-        <v>156571</v>
+        <v>351078</v>
       </c>
       <c r="D70" t="n">
-        <v>395823</v>
+        <v>215914</v>
       </c>
       <c r="E70" t="n">
-        <v>1143557</v>
+        <v>2664939</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -2966,31 +2966,31 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B71" t="n">
-        <v>774952</v>
+        <v>394404</v>
       </c>
       <c r="C71" t="n">
-        <v>359206</v>
+        <v>207202</v>
       </c>
       <c r="D71" t="n">
-        <v>291022</v>
+        <v>131041</v>
       </c>
       <c r="E71" t="n">
-        <v>2490039</v>
+        <v>1347368</v>
       </c>
       <c r="F71" t="n">
         <v>14</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3002,31 +3002,31 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B72" t="n">
-        <v>507985</v>
+        <v>544803</v>
       </c>
       <c r="C72" t="n">
-        <v>334673</v>
+        <v>91092</v>
       </c>
       <c r="D72" t="n">
-        <v>121318</v>
+        <v>317598</v>
       </c>
       <c r="E72" t="n">
-        <v>658333</v>
+        <v>3020815</v>
       </c>
       <c r="F72" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3046,59 +3046,59 @@
         <v>47</v>
       </c>
       <c r="B73" t="n">
-        <v>352083</v>
+        <v>668338</v>
       </c>
       <c r="C73" t="n">
-        <v>113968</v>
+        <v>33199</v>
       </c>
       <c r="D73" t="n">
-        <v>166680</v>
+        <v>444597</v>
       </c>
       <c r="E73" t="n">
-        <v>1193950</v>
+        <v>5038873</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B74" t="n">
-        <v>917118</v>
+        <v>882126</v>
       </c>
       <c r="C74" t="n">
-        <v>110216</v>
+        <v>476329</v>
       </c>
       <c r="D74" t="n">
-        <v>564831</v>
+        <v>284058</v>
       </c>
       <c r="E74" t="n">
-        <v>6463761</v>
+        <v>2565117</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3110,31 +3110,31 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B75" t="n">
-        <v>452584</v>
+        <v>919007</v>
       </c>
       <c r="C75" t="n">
-        <v>102224</v>
+        <v>481905</v>
       </c>
       <c r="D75" t="n">
-        <v>245252</v>
+        <v>305971</v>
       </c>
       <c r="E75" t="n">
-        <v>619811</v>
+        <v>1292877</v>
       </c>
       <c r="F75" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3146,103 +3146,103 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B76" t="n">
-        <v>681563</v>
+        <v>897077</v>
       </c>
       <c r="C76" t="n">
-        <v>422191</v>
+        <v>140304</v>
       </c>
       <c r="D76" t="n">
-        <v>181560</v>
+        <v>529741</v>
       </c>
       <c r="E76" t="n">
-        <v>5767410</v>
+        <v>3864320</v>
       </c>
       <c r="F76" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B77" t="n">
-        <v>727463</v>
+        <v>723749</v>
       </c>
       <c r="C77" t="n">
-        <v>278792</v>
+        <v>418594</v>
       </c>
       <c r="D77" t="n">
-        <v>314070</v>
+        <v>213608</v>
       </c>
       <c r="E77" t="n">
-        <v>8676420</v>
+        <v>3643168</v>
       </c>
       <c r="F77" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B78" t="n">
-        <v>222686</v>
+        <v>824499</v>
       </c>
       <c r="C78" t="n">
-        <v>33853</v>
+        <v>246706</v>
       </c>
       <c r="D78" t="n">
-        <v>132183</v>
+        <v>404455</v>
       </c>
       <c r="E78" t="n">
-        <v>1116940</v>
+        <v>1238460</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3262,23 +3262,23 @@
         <v>44</v>
       </c>
       <c r="B79" t="n">
-        <v>492708</v>
+        <v>836266</v>
       </c>
       <c r="C79" t="n">
-        <v>122306</v>
+        <v>446327</v>
       </c>
       <c r="D79" t="n">
-        <v>259281</v>
+        <v>272957</v>
       </c>
       <c r="E79" t="n">
-        <v>3118900</v>
+        <v>2589287</v>
       </c>
       <c r="F79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3290,63 +3290,63 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B80" t="n">
-        <v>114062</v>
+        <v>539362</v>
       </c>
       <c r="C80" t="n">
-        <v>67080</v>
+        <v>159697</v>
       </c>
       <c r="D80" t="n">
-        <v>32887</v>
+        <v>265766</v>
       </c>
       <c r="E80" t="n">
-        <v>395517</v>
+        <v>4651315</v>
       </c>
       <c r="F80" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B81" t="n">
-        <v>411358</v>
+        <v>529730</v>
       </c>
       <c r="C81" t="n">
-        <v>22001</v>
+        <v>105854</v>
       </c>
       <c r="D81" t="n">
-        <v>272550</v>
+        <v>296713</v>
       </c>
       <c r="E81" t="n">
-        <v>2430051</v>
+        <v>1302879</v>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3367,22 +3367,22 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B82" t="n">
-        <v>117470</v>
+        <v>889164</v>
       </c>
       <c r="C82" t="n">
-        <v>69575</v>
+        <v>455663</v>
       </c>
       <c r="D82" t="n">
-        <v>33526</v>
+        <v>303451</v>
       </c>
       <c r="E82" t="n">
-        <v>439747</v>
+        <v>1579029</v>
       </c>
       <c r="F82" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3403,22 +3403,22 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B83" t="n">
-        <v>779343</v>
+        <v>765628</v>
       </c>
       <c r="C83" t="n">
-        <v>352895</v>
+        <v>241521</v>
       </c>
       <c r="D83" t="n">
-        <v>298514</v>
+        <v>366875</v>
       </c>
       <c r="E83" t="n">
-        <v>2939634</v>
+        <v>2297159</v>
       </c>
       <c r="F83" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3439,62 +3439,62 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B84" t="n">
-        <v>129829</v>
+        <v>142533</v>
       </c>
       <c r="C84" t="n">
-        <v>87219</v>
+        <v>59889</v>
       </c>
       <c r="D84" t="n">
-        <v>29827</v>
+        <v>57851</v>
       </c>
       <c r="E84" t="n">
-        <v>379616</v>
+        <v>805642</v>
       </c>
       <c r="F84" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B85" t="n">
-        <v>553751</v>
+        <v>311465</v>
       </c>
       <c r="C85" t="n">
-        <v>86119</v>
+        <v>203733</v>
       </c>
       <c r="D85" t="n">
-        <v>327342</v>
+        <v>75412</v>
       </c>
       <c r="E85" t="n">
-        <v>2756572</v>
+        <v>814146</v>
       </c>
       <c r="F85" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3506,31 +3506,31 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B86" t="n">
-        <v>683177</v>
+        <v>936327</v>
       </c>
       <c r="C86" t="n">
-        <v>105267</v>
+        <v>614945</v>
       </c>
       <c r="D86" t="n">
-        <v>404537</v>
+        <v>224967</v>
       </c>
       <c r="E86" t="n">
-        <v>7417944</v>
+        <v>3081572</v>
       </c>
       <c r="F86" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3542,99 +3542,99 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B87" t="n">
-        <v>869858</v>
+        <v>873603</v>
       </c>
       <c r="C87" t="n">
-        <v>427206</v>
+        <v>234463</v>
       </c>
       <c r="D87" t="n">
-        <v>309856</v>
+        <v>447398</v>
       </c>
       <c r="E87" t="n">
-        <v>6451405</v>
+        <v>781682</v>
       </c>
       <c r="F87" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B88" t="n">
-        <v>691842</v>
+        <v>944798</v>
       </c>
       <c r="C88" t="n">
-        <v>262794</v>
+        <v>188217</v>
       </c>
       <c r="D88" t="n">
-        <v>300334</v>
+        <v>529607</v>
       </c>
       <c r="E88" t="n">
-        <v>3468756</v>
+        <v>11202184</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B89" t="n">
-        <v>366259</v>
+        <v>568399</v>
       </c>
       <c r="C89" t="n">
-        <v>252766</v>
+        <v>145465</v>
       </c>
       <c r="D89" t="n">
-        <v>79445</v>
+        <v>296054</v>
       </c>
       <c r="E89" t="n">
-        <v>1934185</v>
+        <v>132507</v>
       </c>
       <c r="F89" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3643,11 +3643,11 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>2</v>
@@ -3655,26 +3655,26 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B90" t="n">
-        <v>938963</v>
+        <v>700639</v>
       </c>
       <c r="C90" t="n">
-        <v>655508</v>
+        <v>308864</v>
       </c>
       <c r="D90" t="n">
-        <v>198418</v>
+        <v>274242</v>
       </c>
       <c r="E90" t="n">
-        <v>1318923</v>
+        <v>3015070</v>
       </c>
       <c r="F90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3686,27 +3686,27 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B91" t="n">
-        <v>135092</v>
+        <v>565056</v>
       </c>
       <c r="C91" t="n">
-        <v>50321</v>
+        <v>206186</v>
       </c>
       <c r="D91" t="n">
-        <v>59340</v>
+        <v>251209</v>
       </c>
       <c r="E91" t="n">
-        <v>240065</v>
+        <v>2958138</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3727,26 +3727,26 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B92" t="n">
-        <v>720429</v>
+        <v>308224</v>
       </c>
       <c r="C92" t="n">
-        <v>293493</v>
+        <v>157424</v>
       </c>
       <c r="D92" t="n">
-        <v>298855</v>
+        <v>105560</v>
       </c>
       <c r="E92" t="n">
-        <v>322196</v>
+        <v>1374717</v>
       </c>
       <c r="F92" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3758,31 +3758,31 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B93" t="n">
-        <v>101650</v>
+        <v>626383</v>
       </c>
       <c r="C93" t="n">
-        <v>22264</v>
+        <v>398362</v>
       </c>
       <c r="D93" t="n">
-        <v>55570</v>
+        <v>159615</v>
       </c>
       <c r="E93" t="n">
-        <v>235655</v>
+        <v>659349</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3794,139 +3794,139 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B94" t="n">
-        <v>444423</v>
+        <v>232607</v>
       </c>
       <c r="C94" t="n">
-        <v>288113</v>
+        <v>131804</v>
       </c>
       <c r="D94" t="n">
-        <v>109417</v>
+        <v>70562</v>
       </c>
       <c r="E94" t="n">
-        <v>1664139</v>
+        <v>1868120</v>
       </c>
       <c r="F94" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" t="n">
-        <v>172575</v>
+        <v>301887</v>
       </c>
       <c r="C95" t="n">
-        <v>115350</v>
+        <v>124249</v>
       </c>
       <c r="D95" t="n">
-        <v>40058</v>
+        <v>124347</v>
       </c>
       <c r="E95" t="n">
-        <v>537584</v>
+        <v>368659</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B96" t="n">
-        <v>340583</v>
+        <v>652472</v>
       </c>
       <c r="C96" t="n">
-        <v>99083</v>
+        <v>222244</v>
       </c>
       <c r="D96" t="n">
-        <v>169050</v>
+        <v>301160</v>
       </c>
       <c r="E96" t="n">
-        <v>5046486</v>
+        <v>1694231</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B97" t="n">
-        <v>479347</v>
+        <v>965392</v>
       </c>
       <c r="C97" t="n">
-        <v>59436</v>
+        <v>351087</v>
       </c>
       <c r="D97" t="n">
-        <v>293938</v>
+        <v>430014</v>
       </c>
       <c r="E97" t="n">
-        <v>1193559</v>
+        <v>1380592</v>
       </c>
       <c r="F97" t="n">
         <v>7</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -3938,31 +3938,31 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B98" t="n">
-        <v>635652</v>
+        <v>574463</v>
       </c>
       <c r="C98" t="n">
-        <v>301791</v>
+        <v>260610</v>
       </c>
       <c r="D98" t="n">
-        <v>233703</v>
+        <v>219697</v>
       </c>
       <c r="E98" t="n">
-        <v>1287007</v>
+        <v>3209209</v>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -3974,99 +3974,99 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B99" t="n">
-        <v>593322</v>
+        <v>479718</v>
       </c>
       <c r="C99" t="n">
-        <v>257740</v>
+        <v>169899</v>
       </c>
       <c r="D99" t="n">
-        <v>234907</v>
+        <v>216873</v>
       </c>
       <c r="E99" t="n">
-        <v>4917898</v>
+        <v>3135509</v>
       </c>
       <c r="F99" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B100" t="n">
-        <v>443931</v>
+        <v>957561</v>
       </c>
       <c r="C100" t="n">
-        <v>282076</v>
+        <v>218505</v>
       </c>
       <c r="D100" t="n">
-        <v>113298</v>
+        <v>517339</v>
       </c>
       <c r="E100" t="n">
-        <v>1355004</v>
+        <v>477007</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B101" t="n">
-        <v>413360</v>
+        <v>476665</v>
       </c>
       <c r="C101" t="n">
-        <v>110039</v>
+        <v>248356</v>
       </c>
       <c r="D101" t="n">
-        <v>212325</v>
+        <v>159816</v>
       </c>
       <c r="E101" t="n">
-        <v>1637562</v>
+        <v>3363802</v>
       </c>
       <c r="F101" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4087,58 +4087,58 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B102" t="n">
-        <v>758325</v>
+        <v>930659</v>
       </c>
       <c r="C102" t="n">
-        <v>59791</v>
+        <v>302507</v>
       </c>
       <c r="D102" t="n">
-        <v>488974</v>
+        <v>439706</v>
       </c>
       <c r="E102" t="n">
-        <v>598302</v>
+        <v>13307221</v>
       </c>
       <c r="F102" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B103" t="n">
-        <v>228790</v>
+        <v>387581</v>
       </c>
       <c r="C103" t="n">
-        <v>120850</v>
+        <v>165216</v>
       </c>
       <c r="D103" t="n">
-        <v>75558</v>
+        <v>155656</v>
       </c>
       <c r="E103" t="n">
-        <v>161908</v>
+        <v>2805655</v>
       </c>
       <c r="F103" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4147,11 +4147,11 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>2</v>
@@ -4159,26 +4159,26 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B104" t="n">
-        <v>702751</v>
+        <v>816357</v>
       </c>
       <c r="C104" t="n">
-        <v>154270</v>
+        <v>484597</v>
       </c>
       <c r="D104" t="n">
-        <v>383937</v>
+        <v>232232</v>
       </c>
       <c r="E104" t="n">
-        <v>5838405</v>
+        <v>1006268</v>
       </c>
       <c r="F104" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4190,31 +4190,31 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B105" t="n">
-        <v>787321</v>
+        <v>989475</v>
       </c>
       <c r="C105" t="n">
-        <v>232016</v>
+        <v>517366</v>
       </c>
       <c r="D105" t="n">
-        <v>388714</v>
+        <v>330476</v>
       </c>
       <c r="E105" t="n">
-        <v>3583326</v>
+        <v>9730509</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4226,27 +4226,27 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B106" t="n">
-        <v>463703</v>
+        <v>276956</v>
       </c>
       <c r="C106" t="n">
-        <v>170045</v>
+        <v>97014</v>
       </c>
       <c r="D106" t="n">
-        <v>205561</v>
+        <v>125959</v>
       </c>
       <c r="E106" t="n">
-        <v>1988335</v>
+        <v>142560</v>
       </c>
       <c r="F106" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4267,55 +4267,55 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B107" t="n">
-        <v>538611</v>
+        <v>928833</v>
       </c>
       <c r="C107" t="n">
-        <v>66939</v>
+        <v>168443</v>
       </c>
       <c r="D107" t="n">
-        <v>330170</v>
+        <v>532273</v>
       </c>
       <c r="E107" t="n">
-        <v>1970006</v>
+        <v>12155148</v>
       </c>
       <c r="F107" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B108" t="n">
-        <v>512859</v>
+        <v>440815</v>
       </c>
       <c r="C108" t="n">
-        <v>75208</v>
+        <v>212518</v>
       </c>
       <c r="D108" t="n">
-        <v>306356</v>
+        <v>159808</v>
       </c>
       <c r="E108" t="n">
-        <v>2879624</v>
+        <v>2231937</v>
       </c>
       <c r="F108" t="n">
         <v>10</v>
@@ -4327,11 +4327,11 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>2</v>
@@ -4339,22 +4339,22 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B109" t="n">
-        <v>491263</v>
+        <v>188718</v>
       </c>
       <c r="C109" t="n">
-        <v>340852</v>
+        <v>35561</v>
       </c>
       <c r="D109" t="n">
-        <v>105288</v>
+        <v>107210</v>
       </c>
       <c r="E109" t="n">
-        <v>761750</v>
+        <v>259164</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4375,58 +4375,58 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B110" t="n">
-        <v>921624</v>
+        <v>464539</v>
       </c>
       <c r="C110" t="n">
-        <v>355915</v>
+        <v>208337</v>
       </c>
       <c r="D110" t="n">
-        <v>395996</v>
+        <v>179341</v>
       </c>
       <c r="E110" t="n">
-        <v>10608667</v>
+        <v>3052187</v>
       </c>
       <c r="F110" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B111" t="n">
-        <v>677031</v>
+        <v>108709</v>
       </c>
       <c r="C111" t="n">
-        <v>185665</v>
+        <v>59271</v>
       </c>
       <c r="D111" t="n">
-        <v>343956</v>
+        <v>34607</v>
       </c>
       <c r="E111" t="n">
-        <v>4157286</v>
+        <v>145432</v>
       </c>
       <c r="F111" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4450,19 +4450,19 @@
         <v>41</v>
       </c>
       <c r="B112" t="n">
-        <v>480246</v>
+        <v>877482</v>
       </c>
       <c r="C112" t="n">
-        <v>43884</v>
+        <v>123636</v>
       </c>
       <c r="D112" t="n">
-        <v>305453</v>
+        <v>527692</v>
       </c>
       <c r="E112" t="n">
-        <v>2841441</v>
+        <v>7061538</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4483,58 +4483,58 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B113" t="n">
-        <v>682464</v>
+        <v>232918</v>
       </c>
       <c r="C113" t="n">
-        <v>92864</v>
+        <v>98913</v>
       </c>
       <c r="D113" t="n">
-        <v>412720</v>
+        <v>93804</v>
       </c>
       <c r="E113" t="n">
-        <v>5644184</v>
+        <v>1359384</v>
       </c>
       <c r="F113" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B114" t="n">
-        <v>897805</v>
+        <v>375015</v>
       </c>
       <c r="C114" t="n">
-        <v>200214</v>
+        <v>126398</v>
       </c>
       <c r="D114" t="n">
-        <v>488314</v>
+        <v>174032</v>
       </c>
       <c r="E114" t="n">
-        <v>2095478</v>
+        <v>1001524</v>
       </c>
       <c r="F114" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4555,22 +4555,22 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B115" t="n">
-        <v>539915</v>
+        <v>752827</v>
       </c>
       <c r="C115" t="n">
-        <v>32246</v>
+        <v>176923</v>
       </c>
       <c r="D115" t="n">
-        <v>355368</v>
+        <v>403133</v>
       </c>
       <c r="E115" t="n">
-        <v>2050211</v>
+        <v>4148142</v>
       </c>
       <c r="F115" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B116" t="n">
-        <v>254091</v>
+        <v>957503</v>
       </c>
       <c r="C116" t="n">
-        <v>36846</v>
+        <v>577676</v>
       </c>
       <c r="D116" t="n">
-        <v>152072</v>
+        <v>265879</v>
       </c>
       <c r="E116" t="n">
-        <v>287748</v>
+        <v>796338</v>
       </c>
       <c r="F116" t="n">
         <v>7</v>
@@ -4627,22 +4627,22 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B117" t="n">
-        <v>362196</v>
+        <v>563394</v>
       </c>
       <c r="C117" t="n">
-        <v>240000</v>
+        <v>354689</v>
       </c>
       <c r="D117" t="n">
-        <v>85537</v>
+        <v>146094</v>
       </c>
       <c r="E117" t="n">
-        <v>1626762</v>
+        <v>4140629</v>
       </c>
       <c r="F117" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4663,58 +4663,58 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B118" t="n">
-        <v>219628</v>
+        <v>815778</v>
       </c>
       <c r="C118" t="n">
-        <v>146192</v>
+        <v>436224</v>
       </c>
       <c r="D118" t="n">
-        <v>51405</v>
+        <v>265688</v>
       </c>
       <c r="E118" t="n">
-        <v>250480</v>
+        <v>6281600</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B119" t="n">
-        <v>942300</v>
+        <v>182052</v>
       </c>
       <c r="C119" t="n">
-        <v>243630</v>
+        <v>20348</v>
       </c>
       <c r="D119" t="n">
-        <v>489069</v>
+        <v>113193</v>
       </c>
       <c r="E119" t="n">
-        <v>5362315</v>
+        <v>2045976</v>
       </c>
       <c r="F119" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4735,22 +4735,22 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B120" t="n">
-        <v>976390</v>
+        <v>911786</v>
       </c>
       <c r="C120" t="n">
-        <v>48740</v>
+        <v>626063</v>
       </c>
       <c r="D120" t="n">
-        <v>649355</v>
+        <v>200006</v>
       </c>
       <c r="E120" t="n">
-        <v>1470940</v>
+        <v>1195888</v>
       </c>
       <c r="F120" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4771,22 +4771,22 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B121" t="n">
-        <v>375777</v>
+        <v>499664</v>
       </c>
       <c r="C121" t="n">
-        <v>164529</v>
+        <v>284495</v>
       </c>
       <c r="D121" t="n">
-        <v>147874</v>
+        <v>150618</v>
       </c>
       <c r="E121" t="n">
-        <v>519417</v>
+        <v>4743842</v>
       </c>
       <c r="F121" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4795,11 +4795,11 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -4807,62 +4807,62 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B122" t="n">
-        <v>757439</v>
+        <v>736172</v>
       </c>
       <c r="C122" t="n">
-        <v>503049</v>
+        <v>50292</v>
       </c>
       <c r="D122" t="n">
-        <v>178073</v>
+        <v>480116</v>
       </c>
       <c r="E122" t="n">
-        <v>2690737</v>
+        <v>1978944</v>
       </c>
       <c r="F122" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B123" t="n">
-        <v>962139</v>
+        <v>159848</v>
       </c>
       <c r="C123" t="n">
-        <v>557352</v>
+        <v>83588</v>
       </c>
       <c r="D123" t="n">
-        <v>283351</v>
+        <v>53382</v>
       </c>
       <c r="E123" t="n">
-        <v>1969418</v>
+        <v>337313</v>
       </c>
       <c r="F123" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -4874,27 +4874,27 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B124" t="n">
-        <v>638600</v>
+        <v>602153</v>
       </c>
       <c r="C124" t="n">
-        <v>418179</v>
+        <v>229002</v>
       </c>
       <c r="D124" t="n">
-        <v>154295</v>
+        <v>261206</v>
       </c>
       <c r="E124" t="n">
-        <v>4329837</v>
+        <v>1334642</v>
       </c>
       <c r="F124" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4903,11 +4903,11 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>2</v>
@@ -4918,19 +4918,19 @@
         <v>31</v>
       </c>
       <c r="B125" t="n">
-        <v>843751</v>
+        <v>541567</v>
       </c>
       <c r="C125" t="n">
-        <v>589205</v>
+        <v>100609</v>
       </c>
       <c r="D125" t="n">
-        <v>178182</v>
+        <v>308671</v>
       </c>
       <c r="E125" t="n">
-        <v>4244761</v>
+        <v>1036305</v>
       </c>
       <c r="F125" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4939,11 +4939,11 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>2</v>
@@ -4951,26 +4951,26 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B126" t="n">
-        <v>278980</v>
+        <v>270881</v>
       </c>
       <c r="C126" t="n">
-        <v>124509</v>
+        <v>175923</v>
       </c>
       <c r="D126" t="n">
-        <v>108130</v>
+        <v>66471</v>
       </c>
       <c r="E126" t="n">
-        <v>1093502</v>
+        <v>497505</v>
       </c>
       <c r="F126" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -4982,103 +4982,103 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B127" t="n">
-        <v>210903</v>
+        <v>413100</v>
       </c>
       <c r="C127" t="n">
-        <v>146983</v>
+        <v>81595</v>
       </c>
       <c r="D127" t="n">
-        <v>44744</v>
+        <v>232053</v>
       </c>
       <c r="E127" t="n">
-        <v>230242</v>
+        <v>2963438</v>
       </c>
       <c r="F127" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B128" t="n">
-        <v>233197</v>
+        <v>356019</v>
       </c>
       <c r="C128" t="n">
-        <v>115118</v>
+        <v>37068</v>
       </c>
       <c r="D128" t="n">
-        <v>82655</v>
+        <v>223266</v>
       </c>
       <c r="E128" t="n">
-        <v>420689</v>
+        <v>3439094</v>
       </c>
       <c r="F128" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B129" t="n">
-        <v>156371</v>
+        <v>448963</v>
       </c>
       <c r="C129" t="n">
-        <v>52666</v>
+        <v>304074</v>
       </c>
       <c r="D129" t="n">
-        <v>72594</v>
+        <v>101422</v>
       </c>
       <c r="E129" t="n">
-        <v>304577</v>
+        <v>670467</v>
       </c>
       <c r="F129" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5090,27 +5090,27 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B130" t="n">
-        <v>904114</v>
+        <v>545551</v>
       </c>
       <c r="C130" t="n">
-        <v>28940</v>
+        <v>121579</v>
       </c>
       <c r="D130" t="n">
-        <v>612622</v>
+        <v>296780</v>
       </c>
       <c r="E130" t="n">
-        <v>7365067</v>
+        <v>7430748</v>
       </c>
       <c r="F130" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5131,26 +5131,26 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B131" t="n">
-        <v>329922</v>
+        <v>533420</v>
       </c>
       <c r="C131" t="n">
-        <v>166691</v>
+        <v>208927</v>
       </c>
       <c r="D131" t="n">
-        <v>114262</v>
+        <v>227145</v>
       </c>
       <c r="E131" t="n">
-        <v>2946226</v>
+        <v>5332284</v>
       </c>
       <c r="F131" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5162,27 +5162,27 @@
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B132" t="n">
-        <v>186293</v>
+        <v>538962</v>
       </c>
       <c r="C132" t="n">
-        <v>24301</v>
+        <v>75487</v>
       </c>
       <c r="D132" t="n">
-        <v>113394</v>
+        <v>324432</v>
       </c>
       <c r="E132" t="n">
-        <v>784682</v>
+        <v>7291279</v>
       </c>
       <c r="F132" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5203,22 +5203,22 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B133" t="n">
-        <v>810296</v>
+        <v>162828</v>
       </c>
       <c r="C133" t="n">
-        <v>266457</v>
+        <v>77186</v>
       </c>
       <c r="D133" t="n">
-        <v>380687</v>
+        <v>59949</v>
       </c>
       <c r="E133" t="n">
-        <v>1824213</v>
+        <v>1114248</v>
       </c>
       <c r="F133" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5239,22 +5239,22 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B134" t="n">
-        <v>404225</v>
+        <v>857206</v>
       </c>
       <c r="C134" t="n">
-        <v>239672</v>
+        <v>74842</v>
       </c>
       <c r="D134" t="n">
-        <v>115187</v>
+        <v>547655</v>
       </c>
       <c r="E134" t="n">
-        <v>1393451</v>
+        <v>1009836</v>
       </c>
       <c r="F134" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5275,26 +5275,26 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B135" t="n">
-        <v>769242</v>
+        <v>954943</v>
       </c>
       <c r="C135" t="n">
-        <v>57506</v>
+        <v>535478</v>
       </c>
       <c r="D135" t="n">
-        <v>498215</v>
+        <v>293626</v>
       </c>
       <c r="E135" t="n">
-        <v>2117963</v>
+        <v>239005</v>
       </c>
       <c r="F135" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5306,31 +5306,31 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B136" t="n">
-        <v>967279</v>
+        <v>487863</v>
       </c>
       <c r="C136" t="n">
-        <v>425535</v>
+        <v>301313</v>
       </c>
       <c r="D136" t="n">
-        <v>379221</v>
+        <v>130585</v>
       </c>
       <c r="E136" t="n">
-        <v>1151937</v>
+        <v>599443</v>
       </c>
       <c r="F136" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5342,103 +5342,103 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B137" t="n">
-        <v>586585</v>
+        <v>255612</v>
       </c>
       <c r="C137" t="n">
-        <v>339592</v>
+        <v>154862</v>
       </c>
       <c r="D137" t="n">
-        <v>172895</v>
+        <v>70525</v>
       </c>
       <c r="E137" t="n">
-        <v>3489702</v>
+        <v>127281</v>
       </c>
       <c r="F137" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" t="n">
-        <v>259519</v>
+        <v>391994</v>
       </c>
       <c r="C138" t="n">
-        <v>155993</v>
+        <v>113869</v>
       </c>
       <c r="D138" t="n">
-        <v>72468</v>
+        <v>194688</v>
       </c>
       <c r="E138" t="n">
-        <v>853174</v>
+        <v>274020</v>
       </c>
       <c r="F138" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B139" t="n">
-        <v>904780</v>
+        <v>715504</v>
       </c>
       <c r="C139" t="n">
-        <v>485088</v>
+        <v>402444</v>
       </c>
       <c r="D139" t="n">
-        <v>293784</v>
+        <v>219142</v>
       </c>
       <c r="E139" t="n">
-        <v>1754180</v>
+        <v>1792290</v>
       </c>
       <c r="F139" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5450,24 +5450,24 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B140" t="n">
-        <v>184094</v>
+        <v>218333</v>
       </c>
       <c r="C140" t="n">
-        <v>49842</v>
+        <v>35417</v>
       </c>
       <c r="D140" t="n">
-        <v>93976</v>
+        <v>128041</v>
       </c>
       <c r="E140" t="n">
-        <v>148441</v>
+        <v>726700</v>
       </c>
       <c r="F140" t="n">
         <v>7</v>
@@ -5491,26 +5491,26 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141" t="n">
-        <v>813323</v>
+        <v>218481</v>
       </c>
       <c r="C141" t="n">
-        <v>326414</v>
+        <v>65927</v>
       </c>
       <c r="D141" t="n">
-        <v>340836</v>
+        <v>106788</v>
       </c>
       <c r="E141" t="n">
-        <v>1388894</v>
+        <v>1285818</v>
       </c>
       <c r="F141" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5522,27 +5522,27 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B142" t="n">
-        <v>541528</v>
+        <v>510428</v>
       </c>
       <c r="C142" t="n">
-        <v>202428</v>
+        <v>30788</v>
       </c>
       <c r="D142" t="n">
-        <v>237370</v>
+        <v>335748</v>
       </c>
       <c r="E142" t="n">
-        <v>2192548</v>
+        <v>1111115</v>
       </c>
       <c r="F142" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5551,11 +5551,11 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -5563,19 +5563,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B143" t="n">
-        <v>919089</v>
+        <v>971219</v>
       </c>
       <c r="C143" t="n">
-        <v>291116</v>
+        <v>399922</v>
       </c>
       <c r="D143" t="n">
-        <v>439581</v>
+        <v>399908</v>
       </c>
       <c r="E143" t="n">
-        <v>3889756</v>
+        <v>4169610</v>
       </c>
       <c r="F143" t="n">
         <v>11</v>
@@ -5599,94 +5599,94 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B144" t="n">
-        <v>152002</v>
+        <v>195931</v>
       </c>
       <c r="C144" t="n">
-        <v>43539</v>
+        <v>106960</v>
       </c>
       <c r="D144" t="n">
-        <v>75924</v>
+        <v>62280</v>
       </c>
       <c r="E144" t="n">
-        <v>835586</v>
+        <v>213224</v>
       </c>
       <c r="F144" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B145" t="n">
-        <v>835899</v>
+        <v>621074</v>
       </c>
       <c r="C145" t="n">
-        <v>72332</v>
+        <v>408238</v>
       </c>
       <c r="D145" t="n">
-        <v>534497</v>
+        <v>148985</v>
       </c>
       <c r="E145" t="n">
-        <v>7176253</v>
+        <v>870105</v>
       </c>
       <c r="F145" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B146" t="n">
-        <v>106393</v>
+        <v>116105</v>
       </c>
       <c r="C146" t="n">
-        <v>51646</v>
+        <v>49376</v>
       </c>
       <c r="D146" t="n">
-        <v>38323</v>
+        <v>46710</v>
       </c>
       <c r="E146" t="n">
-        <v>465409</v>
+        <v>1108000</v>
       </c>
       <c r="F146" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5695,11 +5695,11 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -5707,22 +5707,22 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B147" t="n">
-        <v>643191</v>
+        <v>502416</v>
       </c>
       <c r="C147" t="n">
-        <v>119596</v>
+        <v>264405</v>
       </c>
       <c r="D147" t="n">
-        <v>366516</v>
+        <v>166608</v>
       </c>
       <c r="E147" t="n">
-        <v>1758018</v>
+        <v>233305</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5743,22 +5743,22 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B148" t="n">
-        <v>629036</v>
+        <v>588125</v>
       </c>
       <c r="C148" t="n">
-        <v>230201</v>
+        <v>243615</v>
       </c>
       <c r="D148" t="n">
-        <v>279184</v>
+        <v>241157</v>
       </c>
       <c r="E148" t="n">
-        <v>1415022</v>
+        <v>5346388</v>
       </c>
       <c r="F148" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5767,11 +5767,11 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -5779,22 +5779,22 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B149" t="n">
-        <v>712769</v>
+        <v>828779</v>
       </c>
       <c r="C149" t="n">
-        <v>467543</v>
+        <v>99201</v>
       </c>
       <c r="D149" t="n">
-        <v>171658</v>
+        <v>510705</v>
       </c>
       <c r="E149" t="n">
-        <v>138834</v>
+        <v>2522823</v>
       </c>
       <c r="F149" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5815,26 +5815,26 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B150" t="n">
-        <v>114551</v>
+        <v>866657</v>
       </c>
       <c r="C150" t="n">
-        <v>54969</v>
+        <v>228364</v>
       </c>
       <c r="D150" t="n">
-        <v>41707</v>
+        <v>446805</v>
       </c>
       <c r="E150" t="n">
-        <v>306448</v>
+        <v>2741604</v>
       </c>
       <c r="F150" t="n">
         <v>9</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -5846,31 +5846,31 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B151" t="n">
-        <v>837921</v>
+        <v>430747</v>
       </c>
       <c r="C151" t="n">
-        <v>374627</v>
+        <v>186969</v>
       </c>
       <c r="D151" t="n">
-        <v>324306</v>
+        <v>170645</v>
       </c>
       <c r="E151" t="n">
-        <v>1284767</v>
+        <v>164633</v>
       </c>
       <c r="F151" t="n">
         <v>22</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -5882,31 +5882,31 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B152" t="n">
-        <v>628989</v>
+        <v>299232</v>
       </c>
       <c r="C152" t="n">
-        <v>309339</v>
+        <v>118643</v>
       </c>
       <c r="D152" t="n">
-        <v>223755</v>
+        <v>126412</v>
       </c>
       <c r="E152" t="n">
-        <v>4292835</v>
+        <v>1351195</v>
       </c>
       <c r="F152" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -5918,31 +5918,31 @@
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B153" t="n">
-        <v>808417</v>
+        <v>114328</v>
       </c>
       <c r="C153" t="n">
-        <v>247751</v>
+        <v>37043</v>
       </c>
       <c r="D153" t="n">
-        <v>392466</v>
+        <v>54100</v>
       </c>
       <c r="E153" t="n">
-        <v>1120362</v>
+        <v>887137</v>
       </c>
       <c r="F153" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -5954,31 +5954,31 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B154" t="n">
-        <v>758496</v>
+        <v>571912</v>
       </c>
       <c r="C154" t="n">
-        <v>376152</v>
+        <v>234596</v>
       </c>
       <c r="D154" t="n">
-        <v>267641</v>
+        <v>236121</v>
       </c>
       <c r="E154" t="n">
-        <v>1769566</v>
+        <v>626366</v>
       </c>
       <c r="F154" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -5990,27 +5990,27 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B155" t="n">
-        <v>257507</v>
+        <v>152569</v>
       </c>
       <c r="C155" t="n">
-        <v>26431</v>
+        <v>99981</v>
       </c>
       <c r="D155" t="n">
-        <v>161753</v>
+        <v>36812</v>
       </c>
       <c r="E155" t="n">
-        <v>464860</v>
+        <v>143800</v>
       </c>
       <c r="F155" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -6034,23 +6034,23 @@
         <v>35</v>
       </c>
       <c r="B156" t="n">
-        <v>319474</v>
+        <v>206434</v>
       </c>
       <c r="C156" t="n">
-        <v>202809</v>
+        <v>72185</v>
       </c>
       <c r="D156" t="n">
-        <v>81666</v>
+        <v>93974</v>
       </c>
       <c r="E156" t="n">
-        <v>923618</v>
+        <v>622120</v>
       </c>
       <c r="F156" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6062,31 +6062,31 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B157" t="n">
-        <v>378956</v>
+        <v>256432</v>
       </c>
       <c r="C157" t="n">
-        <v>249337</v>
+        <v>129692</v>
       </c>
       <c r="D157" t="n">
-        <v>90733</v>
+        <v>88718</v>
       </c>
       <c r="E157" t="n">
-        <v>137123</v>
+        <v>970992</v>
       </c>
       <c r="F157" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6098,31 +6098,31 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B158" t="n">
-        <v>469361</v>
+        <v>376570</v>
       </c>
       <c r="C158" t="n">
-        <v>138633</v>
+        <v>112192</v>
       </c>
       <c r="D158" t="n">
-        <v>231510</v>
+        <v>185065</v>
       </c>
       <c r="E158" t="n">
-        <v>377959</v>
+        <v>1120053</v>
       </c>
       <c r="F158" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6134,31 +6134,31 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B159" t="n">
-        <v>263373</v>
+        <v>107375</v>
       </c>
       <c r="C159" t="n">
-        <v>168086</v>
+        <v>64363</v>
       </c>
       <c r="D159" t="n">
-        <v>66701</v>
+        <v>30108</v>
       </c>
       <c r="E159" t="n">
-        <v>2231340</v>
+        <v>875155</v>
       </c>
       <c r="F159" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6170,31 +6170,31 @@
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B160" t="n">
-        <v>591297</v>
+        <v>668567</v>
       </c>
       <c r="C160" t="n">
-        <v>32306</v>
+        <v>62295</v>
       </c>
       <c r="D160" t="n">
-        <v>391294</v>
+        <v>424390</v>
       </c>
       <c r="E160" t="n">
-        <v>626175</v>
+        <v>2415468</v>
       </c>
       <c r="F160" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6206,27 +6206,27 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B161" t="n">
-        <v>552850</v>
+        <v>638118</v>
       </c>
       <c r="C161" t="n">
-        <v>242817</v>
+        <v>69369</v>
       </c>
       <c r="D161" t="n">
-        <v>217023</v>
+        <v>398124</v>
       </c>
       <c r="E161" t="n">
-        <v>610343</v>
+        <v>5297867</v>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -6247,22 +6247,22 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B162" t="n">
-        <v>972942</v>
+        <v>720115</v>
       </c>
       <c r="C162" t="n">
-        <v>489787</v>
+        <v>221290</v>
       </c>
       <c r="D162" t="n">
-        <v>338208</v>
+        <v>349178</v>
       </c>
       <c r="E162" t="n">
-        <v>133091</v>
+        <v>420583</v>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -6283,94 +6283,94 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B163" t="n">
-        <v>724697</v>
+        <v>724761</v>
       </c>
       <c r="C163" t="n">
-        <v>147880</v>
+        <v>190282</v>
       </c>
       <c r="D163" t="n">
-        <v>403772</v>
+        <v>374135</v>
       </c>
       <c r="E163" t="n">
-        <v>8059966</v>
+        <v>4235304</v>
       </c>
       <c r="F163" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B164" t="n">
-        <v>498056</v>
+        <v>146056</v>
       </c>
       <c r="C164" t="n">
-        <v>176029</v>
+        <v>55248</v>
       </c>
       <c r="D164" t="n">
-        <v>225419</v>
+        <v>63566</v>
       </c>
       <c r="E164" t="n">
-        <v>5257954</v>
+        <v>439346</v>
       </c>
       <c r="F164" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B165" t="n">
-        <v>453705</v>
+        <v>846134</v>
       </c>
       <c r="C165" t="n">
-        <v>142824</v>
+        <v>169139</v>
       </c>
       <c r="D165" t="n">
-        <v>217617</v>
+        <v>473896</v>
       </c>
       <c r="E165" t="n">
-        <v>158519</v>
+        <v>2318507</v>
       </c>
       <c r="F165" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6394,19 +6394,19 @@
         <v>48</v>
       </c>
       <c r="B166" t="n">
-        <v>783447</v>
+        <v>524654</v>
       </c>
       <c r="C166" t="n">
-        <v>123977</v>
+        <v>339010</v>
       </c>
       <c r="D166" t="n">
-        <v>461629</v>
+        <v>129951</v>
       </c>
       <c r="E166" t="n">
-        <v>2946621</v>
+        <v>689011</v>
       </c>
       <c r="F166" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6427,26 +6427,26 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B167" t="n">
-        <v>847424</v>
+        <v>577650</v>
       </c>
       <c r="C167" t="n">
-        <v>374949</v>
+        <v>336684</v>
       </c>
       <c r="D167" t="n">
-        <v>330732</v>
+        <v>168676</v>
       </c>
       <c r="E167" t="n">
-        <v>4212008</v>
+        <v>864409</v>
       </c>
       <c r="F167" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6458,31 +6458,31 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B168" t="n">
-        <v>386712</v>
+        <v>241735</v>
       </c>
       <c r="C168" t="n">
-        <v>259579</v>
+        <v>51098</v>
       </c>
       <c r="D168" t="n">
-        <v>88993</v>
+        <v>133446</v>
       </c>
       <c r="E168" t="n">
-        <v>1373711</v>
+        <v>1234646</v>
       </c>
       <c r="F168" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6494,60 +6494,60 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B169" t="n">
-        <v>208668</v>
+        <v>638537</v>
       </c>
       <c r="C169" t="n">
-        <v>72323</v>
+        <v>158166</v>
       </c>
       <c r="D169" t="n">
-        <v>95442</v>
+        <v>336260</v>
       </c>
       <c r="E169" t="n">
-        <v>1074661</v>
+        <v>3758323</v>
       </c>
       <c r="F169" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B170" t="n">
-        <v>131107</v>
+        <v>913078</v>
       </c>
       <c r="C170" t="n">
-        <v>22125</v>
+        <v>594986</v>
       </c>
       <c r="D170" t="n">
-        <v>76287</v>
+        <v>222664</v>
       </c>
       <c r="E170" t="n">
-        <v>534070</v>
+        <v>1593613</v>
       </c>
       <c r="F170" t="n">
         <v>12</v>
@@ -6571,22 +6571,22 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B171" t="n">
-        <v>622359</v>
+        <v>221268</v>
       </c>
       <c r="C171" t="n">
-        <v>116164</v>
+        <v>66210</v>
       </c>
       <c r="D171" t="n">
-        <v>354336</v>
+        <v>108541</v>
       </c>
       <c r="E171" t="n">
-        <v>4754493</v>
+        <v>941111</v>
       </c>
       <c r="F171" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6595,11 +6595,11 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
         <v>2</v>
@@ -6607,22 +6607,22 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B172" t="n">
-        <v>982029</v>
+        <v>612599</v>
       </c>
       <c r="C172" t="n">
-        <v>522077</v>
+        <v>368003</v>
       </c>
       <c r="D172" t="n">
-        <v>321966</v>
+        <v>171217</v>
       </c>
       <c r="E172" t="n">
-        <v>714549</v>
+        <v>1643638</v>
       </c>
       <c r="F172" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6643,26 +6643,26 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B173" t="n">
-        <v>589516</v>
+        <v>907245</v>
       </c>
       <c r="C173" t="n">
-        <v>199393</v>
+        <v>587171</v>
       </c>
       <c r="D173" t="n">
-        <v>273086</v>
+        <v>224052</v>
       </c>
       <c r="E173" t="n">
-        <v>4758160</v>
+        <v>1181663</v>
       </c>
       <c r="F173" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -6674,31 +6674,31 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B174" t="n">
-        <v>956927</v>
+        <v>833439</v>
       </c>
       <c r="C174" t="n">
-        <v>197621</v>
+        <v>566388</v>
       </c>
       <c r="D174" t="n">
-        <v>531514</v>
+        <v>186936</v>
       </c>
       <c r="E174" t="n">
-        <v>4308741</v>
+        <v>1090401</v>
       </c>
       <c r="F174" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -6710,27 +6710,27 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B175" t="n">
-        <v>437254</v>
+        <v>862837</v>
       </c>
       <c r="C175" t="n">
-        <v>115892</v>
+        <v>244909</v>
       </c>
       <c r="D175" t="n">
-        <v>224953</v>
+        <v>432550</v>
       </c>
       <c r="E175" t="n">
-        <v>1501126</v>
+        <v>3398447</v>
       </c>
       <c r="F175" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6751,94 +6751,94 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B176" t="n">
-        <v>430402</v>
+        <v>876361</v>
       </c>
       <c r="C176" t="n">
-        <v>118118</v>
+        <v>536034</v>
       </c>
       <c r="D176" t="n">
-        <v>218599</v>
+        <v>238229</v>
       </c>
       <c r="E176" t="n">
-        <v>6742058</v>
+        <v>3979560</v>
       </c>
       <c r="F176" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B177" t="n">
-        <v>149091</v>
+        <v>849428</v>
       </c>
       <c r="C177" t="n">
-        <v>20367</v>
+        <v>192137</v>
       </c>
       <c r="D177" t="n">
-        <v>90107</v>
+        <v>460104</v>
       </c>
       <c r="E177" t="n">
-        <v>307475</v>
+        <v>9700507</v>
       </c>
       <c r="F177" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B178" t="n">
-        <v>928891</v>
+        <v>591177</v>
       </c>
       <c r="C178" t="n">
-        <v>276224</v>
+        <v>102208</v>
       </c>
       <c r="D178" t="n">
-        <v>456867</v>
+        <v>342278</v>
       </c>
       <c r="E178" t="n">
-        <v>2487305</v>
+        <v>3502485</v>
       </c>
       <c r="F178" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6847,11 +6847,11 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>2</v>
@@ -6859,26 +6859,26 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B179" t="n">
-        <v>373857</v>
+        <v>270144</v>
       </c>
       <c r="C179" t="n">
-        <v>107583</v>
+        <v>86202</v>
       </c>
       <c r="D179" t="n">
-        <v>186392</v>
+        <v>128759</v>
       </c>
       <c r="E179" t="n">
-        <v>235902</v>
+        <v>959792</v>
       </c>
       <c r="F179" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -6890,24 +6890,24 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B180" t="n">
-        <v>759070</v>
+        <v>331140</v>
       </c>
       <c r="C180" t="n">
-        <v>343025</v>
+        <v>60898</v>
       </c>
       <c r="D180" t="n">
-        <v>291232</v>
+        <v>189169</v>
       </c>
       <c r="E180" t="n">
-        <v>7787801</v>
+        <v>4476982</v>
       </c>
       <c r="F180" t="n">
         <v>20</v>
@@ -6931,22 +6931,22 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B181" t="n">
-        <v>588606</v>
+        <v>643044</v>
       </c>
       <c r="C181" t="n">
-        <v>27916</v>
+        <v>157628</v>
       </c>
       <c r="D181" t="n">
-        <v>392483</v>
+        <v>339791</v>
       </c>
       <c r="E181" t="n">
-        <v>918284</v>
+        <v>3315074</v>
       </c>
       <c r="F181" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6967,26 +6967,26 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B182" t="n">
-        <v>414448</v>
+        <v>617263</v>
       </c>
       <c r="C182" t="n">
-        <v>123146</v>
+        <v>339193</v>
       </c>
       <c r="D182" t="n">
-        <v>203911</v>
+        <v>194649</v>
       </c>
       <c r="E182" t="n">
-        <v>1025230</v>
+        <v>1289120</v>
       </c>
       <c r="F182" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -6998,27 +6998,27 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B183" t="n">
-        <v>408748</v>
+        <v>253127</v>
       </c>
       <c r="C183" t="n">
-        <v>266029</v>
+        <v>66445</v>
       </c>
       <c r="D183" t="n">
-        <v>99903</v>
+        <v>130677</v>
       </c>
       <c r="E183" t="n">
-        <v>634899</v>
+        <v>908806</v>
       </c>
       <c r="F183" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -7039,94 +7039,94 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B184" t="n">
-        <v>767738</v>
+        <v>479361</v>
       </c>
       <c r="C184" t="n">
-        <v>281266</v>
+        <v>143324</v>
       </c>
       <c r="D184" t="n">
-        <v>340530</v>
+        <v>235226</v>
       </c>
       <c r="E184" t="n">
-        <v>2606495</v>
+        <v>1566310</v>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B185" t="n">
-        <v>351645</v>
+        <v>562125</v>
       </c>
       <c r="C185" t="n">
-        <v>141154</v>
+        <v>138567</v>
       </c>
       <c r="D185" t="n">
-        <v>147344</v>
+        <v>296491</v>
       </c>
       <c r="E185" t="n">
-        <v>161861</v>
+        <v>3167784</v>
       </c>
       <c r="F185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B186" t="n">
-        <v>578212</v>
+        <v>804937</v>
       </c>
       <c r="C186" t="n">
-        <v>201962</v>
+        <v>162815</v>
       </c>
       <c r="D186" t="n">
-        <v>263375</v>
+        <v>449485</v>
       </c>
       <c r="E186" t="n">
-        <v>1886545</v>
+        <v>3299550</v>
       </c>
       <c r="F186" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -7135,11 +7135,11 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>2</v>
@@ -7147,26 +7147,26 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B187" t="n">
-        <v>866859</v>
+        <v>542467</v>
       </c>
       <c r="C187" t="n">
-        <v>139916</v>
+        <v>59716</v>
       </c>
       <c r="D187" t="n">
-        <v>508860</v>
+        <v>337926</v>
       </c>
       <c r="E187" t="n">
-        <v>534105</v>
+        <v>5217249</v>
       </c>
       <c r="F187" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7178,27 +7178,27 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B188" t="n">
-        <v>118323</v>
+        <v>147051</v>
       </c>
       <c r="C188" t="n">
-        <v>63984</v>
+        <v>80488</v>
       </c>
       <c r="D188" t="n">
-        <v>38037</v>
+        <v>46594</v>
       </c>
       <c r="E188" t="n">
-        <v>266871</v>
+        <v>172637</v>
       </c>
       <c r="F188" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -7219,26 +7219,26 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B189" t="n">
-        <v>845884</v>
+        <v>748879</v>
       </c>
       <c r="C189" t="n">
-        <v>38192</v>
+        <v>212837</v>
       </c>
       <c r="D189" t="n">
-        <v>565384</v>
+        <v>375229</v>
       </c>
       <c r="E189" t="n">
-        <v>5736954</v>
+        <v>261673</v>
       </c>
       <c r="F189" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -7258,95 +7258,95 @@
         <v>51</v>
       </c>
       <c r="B190" t="n">
-        <v>409154</v>
+        <v>408280</v>
       </c>
       <c r="C190" t="n">
-        <v>164345</v>
+        <v>173705</v>
       </c>
       <c r="D190" t="n">
-        <v>171366</v>
+        <v>164202</v>
       </c>
       <c r="E190" t="n">
-        <v>5652642</v>
+        <v>839215</v>
       </c>
       <c r="F190" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B191" t="n">
-        <v>379519</v>
+        <v>112570</v>
       </c>
       <c r="C191" t="n">
-        <v>218889</v>
+        <v>48713</v>
       </c>
       <c r="D191" t="n">
-        <v>112441</v>
+        <v>44700</v>
       </c>
       <c r="E191" t="n">
-        <v>353568</v>
+        <v>399830</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B192" t="n">
-        <v>199523</v>
+        <v>408381</v>
       </c>
       <c r="C192" t="n">
-        <v>27572</v>
+        <v>32984</v>
       </c>
       <c r="D192" t="n">
-        <v>120366</v>
+        <v>262778</v>
       </c>
       <c r="E192" t="n">
-        <v>3074571</v>
+        <v>5722634</v>
       </c>
       <c r="F192" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7358,103 +7358,103 @@
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B193" t="n">
-        <v>126826</v>
+        <v>102223</v>
       </c>
       <c r="C193" t="n">
-        <v>53868</v>
+        <v>64235</v>
       </c>
       <c r="D193" t="n">
-        <v>51071</v>
+        <v>26592</v>
       </c>
       <c r="E193" t="n">
-        <v>954928</v>
+        <v>558121</v>
       </c>
       <c r="F193" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B194" t="n">
-        <v>998361</v>
+        <v>757387</v>
       </c>
       <c r="C194" t="n">
-        <v>573118</v>
+        <v>302587</v>
       </c>
       <c r="D194" t="n">
-        <v>297670</v>
+        <v>318360</v>
       </c>
       <c r="E194" t="n">
-        <v>7424133</v>
+        <v>3519507</v>
       </c>
       <c r="F194" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B195" t="n">
-        <v>537590</v>
+        <v>439318</v>
       </c>
       <c r="C195" t="n">
-        <v>189705</v>
+        <v>189618</v>
       </c>
       <c r="D195" t="n">
-        <v>243519</v>
+        <v>174790</v>
       </c>
       <c r="E195" t="n">
-        <v>1082973</v>
+        <v>2534254</v>
       </c>
       <c r="F195" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -7466,31 +7466,31 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B196" t="n">
-        <v>226430</v>
+        <v>795109</v>
       </c>
       <c r="C196" t="n">
-        <v>85168</v>
+        <v>323612</v>
       </c>
       <c r="D196" t="n">
-        <v>98883</v>
+        <v>330048</v>
       </c>
       <c r="E196" t="n">
-        <v>484315</v>
+        <v>3062955</v>
       </c>
       <c r="F196" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7502,31 +7502,31 @@
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B197" t="n">
-        <v>461384</v>
+        <v>785831</v>
       </c>
       <c r="C197" t="n">
-        <v>121604</v>
+        <v>426491</v>
       </c>
       <c r="D197" t="n">
-        <v>237846</v>
+        <v>251538</v>
       </c>
       <c r="E197" t="n">
-        <v>3299852</v>
+        <v>2039656</v>
       </c>
       <c r="F197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7538,31 +7538,31 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B198" t="n">
-        <v>626966</v>
+        <v>937587</v>
       </c>
       <c r="C198" t="n">
-        <v>206412</v>
+        <v>52657</v>
       </c>
       <c r="D198" t="n">
-        <v>294388</v>
+        <v>619451</v>
       </c>
       <c r="E198" t="n">
-        <v>1180251</v>
+        <v>11901802</v>
       </c>
       <c r="F198" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7574,31 +7574,31 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B199" t="n">
-        <v>988949</v>
+        <v>121369</v>
       </c>
       <c r="C199" t="n">
-        <v>381069</v>
+        <v>72238</v>
       </c>
       <c r="D199" t="n">
-        <v>425516</v>
+        <v>34392</v>
       </c>
       <c r="E199" t="n">
-        <v>2737059</v>
+        <v>189073</v>
       </c>
       <c r="F199" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -7610,27 +7610,27 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B200" t="n">
-        <v>111776</v>
+        <v>498960</v>
       </c>
       <c r="C200" t="n">
-        <v>68764</v>
+        <v>193490</v>
       </c>
       <c r="D200" t="n">
-        <v>30108</v>
+        <v>213829</v>
       </c>
       <c r="E200" t="n">
-        <v>451183</v>
+        <v>626742</v>
       </c>
       <c r="F200" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7651,38 +7651,38 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B201" t="n">
-        <v>521853</v>
+        <v>917756</v>
       </c>
       <c r="C201" t="n">
-        <v>120955</v>
+        <v>223094</v>
       </c>
       <c r="D201" t="n">
-        <v>280629</v>
+        <v>486263</v>
       </c>
       <c r="E201" t="n">
-        <v>2501958</v>
+        <v>5955679</v>
       </c>
       <c r="F201" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -7690,19 +7690,19 @@
         <v>48</v>
       </c>
       <c r="B202" t="n">
-        <v>291121</v>
+        <v>926014</v>
       </c>
       <c r="C202" t="n">
-        <v>170499</v>
+        <v>505703</v>
       </c>
       <c r="D202" t="n">
-        <v>84435</v>
+        <v>294218</v>
       </c>
       <c r="E202" t="n">
-        <v>801988</v>
+        <v>2599371</v>
       </c>
       <c r="F202" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7723,22 +7723,22 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B203" t="n">
-        <v>864505</v>
+        <v>636238</v>
       </c>
       <c r="C203" t="n">
-        <v>515457</v>
+        <v>229898</v>
       </c>
       <c r="D203" t="n">
-        <v>244334</v>
+        <v>284438</v>
       </c>
       <c r="E203" t="n">
-        <v>4198390</v>
+        <v>1774094</v>
       </c>
       <c r="F203" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7759,94 +7759,94 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B204" t="n">
-        <v>119885</v>
+        <v>993555</v>
       </c>
       <c r="C204" t="n">
-        <v>52688</v>
+        <v>67444</v>
       </c>
       <c r="D204" t="n">
-        <v>47038</v>
+        <v>648278</v>
       </c>
       <c r="E204" t="n">
-        <v>975403</v>
+        <v>1158025</v>
       </c>
       <c r="F204" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B205" t="n">
-        <v>161401</v>
+        <v>671616</v>
       </c>
       <c r="C205" t="n">
-        <v>72710</v>
+        <v>433593</v>
       </c>
       <c r="D205" t="n">
-        <v>62084</v>
+        <v>166616</v>
       </c>
       <c r="E205" t="n">
-        <v>2064941</v>
+        <v>811436</v>
       </c>
       <c r="F205" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B206" t="n">
-        <v>784992</v>
+        <v>690635</v>
       </c>
       <c r="C206" t="n">
-        <v>243283</v>
+        <v>188524</v>
       </c>
       <c r="D206" t="n">
-        <v>379196</v>
+        <v>351478</v>
       </c>
       <c r="E206" t="n">
-        <v>3298258</v>
+        <v>5416980</v>
       </c>
       <c r="F206" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7867,26 +7867,26 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B207" t="n">
-        <v>109089</v>
+        <v>640160</v>
       </c>
       <c r="C207" t="n">
-        <v>38208</v>
+        <v>75218</v>
       </c>
       <c r="D207" t="n">
-        <v>49617</v>
+        <v>395459</v>
       </c>
       <c r="E207" t="n">
-        <v>124811</v>
+        <v>136605</v>
       </c>
       <c r="F207" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -7898,63 +7898,63 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B208" t="n">
-        <v>869395</v>
+        <v>869041</v>
       </c>
       <c r="C208" t="n">
-        <v>41057</v>
+        <v>198554</v>
       </c>
       <c r="D208" t="n">
-        <v>579837</v>
+        <v>469341</v>
       </c>
       <c r="E208" t="n">
-        <v>19076197</v>
+        <v>10200239</v>
       </c>
       <c r="F208" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B209" t="n">
-        <v>745998</v>
+        <v>274163</v>
       </c>
       <c r="C209" t="n">
-        <v>163243</v>
+        <v>27223</v>
       </c>
       <c r="D209" t="n">
-        <v>407928</v>
+        <v>172858</v>
       </c>
       <c r="E209" t="n">
-        <v>6586811</v>
+        <v>2459676</v>
       </c>
       <c r="F209" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7975,22 +7975,22 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B210" t="n">
-        <v>440107</v>
+        <v>344459</v>
       </c>
       <c r="C210" t="n">
-        <v>168111</v>
+        <v>126892</v>
       </c>
       <c r="D210" t="n">
-        <v>190397</v>
+        <v>152297</v>
       </c>
       <c r="E210" t="n">
-        <v>843557</v>
+        <v>3031407</v>
       </c>
       <c r="F210" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -7999,11 +7999,11 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
         <v>2</v>
@@ -8011,22 +8011,22 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B211" t="n">
-        <v>896679</v>
+        <v>118798</v>
       </c>
       <c r="C211" t="n">
-        <v>576552</v>
+        <v>46128</v>
       </c>
       <c r="D211" t="n">
-        <v>224089</v>
+        <v>50869</v>
       </c>
       <c r="E211" t="n">
-        <v>486341</v>
+        <v>233936</v>
       </c>
       <c r="F211" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -8047,22 +8047,22 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B212" t="n">
-        <v>322868</v>
+        <v>621861</v>
       </c>
       <c r="C212" t="n">
-        <v>36168</v>
+        <v>227382</v>
       </c>
       <c r="D212" t="n">
-        <v>200690</v>
+        <v>276135</v>
       </c>
       <c r="E212" t="n">
-        <v>362229</v>
+        <v>4341978</v>
       </c>
       <c r="F212" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -8071,11 +8071,11 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
         <v>2</v>
@@ -8083,22 +8083,22 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B213" t="n">
-        <v>517075</v>
+        <v>470831</v>
       </c>
       <c r="C213" t="n">
-        <v>355800</v>
+        <v>184448</v>
       </c>
       <c r="D213" t="n">
-        <v>112892</v>
+        <v>200468</v>
       </c>
       <c r="E213" t="n">
-        <v>941555</v>
+        <v>969515</v>
       </c>
       <c r="F213" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -8107,11 +8107,11 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
         <v>2</v>
@@ -8119,22 +8119,22 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B214" t="n">
-        <v>287928</v>
+        <v>286082</v>
       </c>
       <c r="C214" t="n">
-        <v>164620</v>
+        <v>41503</v>
       </c>
       <c r="D214" t="n">
-        <v>86316</v>
+        <v>171205</v>
       </c>
       <c r="E214" t="n">
-        <v>141205</v>
+        <v>1859472</v>
       </c>
       <c r="F214" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
         <v>2</v>
@@ -8155,19 +8155,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B215" t="n">
-        <v>389836</v>
+        <v>352685</v>
       </c>
       <c r="C215" t="n">
-        <v>196803</v>
+        <v>205536</v>
       </c>
       <c r="D215" t="n">
-        <v>135123</v>
+        <v>103004</v>
       </c>
       <c r="E215" t="n">
-        <v>1423552</v>
+        <v>1643141</v>
       </c>
       <c r="F215" t="n">
         <v>21</v>
@@ -8191,22 +8191,22 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B216" t="n">
-        <v>885503</v>
+        <v>824257</v>
       </c>
       <c r="C216" t="n">
-        <v>56047</v>
+        <v>447475</v>
       </c>
       <c r="D216" t="n">
-        <v>580619</v>
+        <v>263747</v>
       </c>
       <c r="E216" t="n">
-        <v>3329003</v>
+        <v>7259129</v>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -8215,11 +8215,11 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
@@ -8230,23 +8230,23 @@
         <v>41</v>
       </c>
       <c r="B217" t="n">
-        <v>258068</v>
+        <v>952372</v>
       </c>
       <c r="C217" t="n">
-        <v>159187</v>
+        <v>432398</v>
       </c>
       <c r="D217" t="n">
-        <v>69217</v>
+        <v>363982</v>
       </c>
       <c r="E217" t="n">
-        <v>702801</v>
+        <v>446589</v>
       </c>
       <c r="F217" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8258,43 +8258,43 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B218" t="n">
-        <v>350160</v>
+        <v>801548</v>
       </c>
       <c r="C218" t="n">
-        <v>74822</v>
+        <v>198119</v>
       </c>
       <c r="D218" t="n">
-        <v>192737</v>
+        <v>422400</v>
       </c>
       <c r="E218" t="n">
-        <v>1131758</v>
+        <v>4731731</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -8302,23 +8302,23 @@
         <v>51</v>
       </c>
       <c r="B219" t="n">
-        <v>550414</v>
+        <v>677758</v>
       </c>
       <c r="C219" t="n">
-        <v>243256</v>
+        <v>176205</v>
       </c>
       <c r="D219" t="n">
-        <v>215011</v>
+        <v>351087</v>
       </c>
       <c r="E219" t="n">
-        <v>327643</v>
+        <v>2509429</v>
       </c>
       <c r="F219" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -8330,31 +8330,31 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B220" t="n">
-        <v>461578</v>
+        <v>923449</v>
       </c>
       <c r="C220" t="n">
-        <v>192183</v>
+        <v>534290</v>
       </c>
       <c r="D220" t="n">
-        <v>188576</v>
+        <v>272411</v>
       </c>
       <c r="E220" t="n">
-        <v>1174567</v>
+        <v>1627222</v>
       </c>
       <c r="F220" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8366,63 +8366,63 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B221" t="n">
-        <v>865491</v>
+        <v>116062</v>
       </c>
       <c r="C221" t="n">
-        <v>88973</v>
+        <v>53774</v>
       </c>
       <c r="D221" t="n">
-        <v>543563</v>
+        <v>43602</v>
       </c>
       <c r="E221" t="n">
-        <v>184139</v>
+        <v>1465321</v>
       </c>
       <c r="F221" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B222" t="n">
-        <v>545201</v>
+        <v>544143</v>
       </c>
       <c r="C222" t="n">
-        <v>159786</v>
+        <v>261649</v>
       </c>
       <c r="D222" t="n">
-        <v>269790</v>
+        <v>197746</v>
       </c>
       <c r="E222" t="n">
-        <v>1867539</v>
+        <v>2681135</v>
       </c>
       <c r="F222" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -8443,62 +8443,62 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B223" t="n">
-        <v>969019</v>
+        <v>682344</v>
       </c>
       <c r="C223" t="n">
-        <v>663019</v>
+        <v>64811</v>
       </c>
       <c r="D223" t="n">
-        <v>214200</v>
+        <v>432273</v>
       </c>
       <c r="E223" t="n">
-        <v>6738882</v>
+        <v>1464972</v>
       </c>
       <c r="F223" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B224" t="n">
-        <v>168929</v>
+        <v>676568</v>
       </c>
       <c r="C224" t="n">
-        <v>112178</v>
+        <v>241134</v>
       </c>
       <c r="D224" t="n">
-        <v>39726</v>
+        <v>304804</v>
       </c>
       <c r="E224" t="n">
-        <v>450715</v>
+        <v>1096154</v>
       </c>
       <c r="F224" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -8510,27 +8510,27 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B225" t="n">
-        <v>942267</v>
+        <v>750750</v>
       </c>
       <c r="C225" t="n">
-        <v>443203</v>
+        <v>55923</v>
       </c>
       <c r="D225" t="n">
-        <v>349345</v>
+        <v>486379</v>
       </c>
       <c r="E225" t="n">
-        <v>5730346</v>
+        <v>7357349</v>
       </c>
       <c r="F225" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8551,22 +8551,22 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B226" t="n">
-        <v>271980</v>
+        <v>872172</v>
       </c>
       <c r="C226" t="n">
-        <v>87792</v>
+        <v>485484</v>
       </c>
       <c r="D226" t="n">
-        <v>128932</v>
+        <v>270682</v>
       </c>
       <c r="E226" t="n">
-        <v>2218553</v>
+        <v>301960</v>
       </c>
       <c r="F226" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -8587,26 +8587,26 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B227" t="n">
-        <v>239690</v>
+        <v>445158</v>
       </c>
       <c r="C227" t="n">
-        <v>117218</v>
+        <v>279209</v>
       </c>
       <c r="D227" t="n">
-        <v>85730</v>
+        <v>116164</v>
       </c>
       <c r="E227" t="n">
-        <v>1446652</v>
+        <v>838640</v>
       </c>
       <c r="F227" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -8618,27 +8618,27 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B228" t="n">
-        <v>161614</v>
+        <v>502412</v>
       </c>
       <c r="C228" t="n">
-        <v>73574</v>
+        <v>24561</v>
       </c>
       <c r="D228" t="n">
-        <v>61628</v>
+        <v>334496</v>
       </c>
       <c r="E228" t="n">
-        <v>293285</v>
+        <v>6409363</v>
       </c>
       <c r="F228" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -8659,22 +8659,22 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B229" t="n">
-        <v>389310</v>
+        <v>927231</v>
       </c>
       <c r="C229" t="n">
-        <v>87218</v>
+        <v>563149</v>
       </c>
       <c r="D229" t="n">
-        <v>211464</v>
+        <v>254857</v>
       </c>
       <c r="E229" t="n">
-        <v>3831826</v>
+        <v>929509</v>
       </c>
       <c r="F229" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -8695,26 +8695,26 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B230" t="n">
-        <v>346920</v>
+        <v>147323</v>
       </c>
       <c r="C230" t="n">
-        <v>233647</v>
+        <v>76888</v>
       </c>
       <c r="D230" t="n">
-        <v>79291</v>
+        <v>49304</v>
       </c>
       <c r="E230" t="n">
-        <v>1125092</v>
+        <v>1108586</v>
       </c>
       <c r="F230" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -8726,63 +8726,63 @@
         <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B231" t="n">
-        <v>117941</v>
+        <v>594424</v>
       </c>
       <c r="C231" t="n">
-        <v>52847</v>
+        <v>409001</v>
       </c>
       <c r="D231" t="n">
-        <v>45566</v>
+        <v>129796</v>
       </c>
       <c r="E231" t="n">
-        <v>551438</v>
+        <v>4162514</v>
       </c>
       <c r="F231" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B232" t="n">
-        <v>576395</v>
+        <v>567958</v>
       </c>
       <c r="C232" t="n">
-        <v>75427</v>
+        <v>154995</v>
       </c>
       <c r="D232" t="n">
-        <v>350678</v>
+        <v>289074</v>
       </c>
       <c r="E232" t="n">
-        <v>4363553</v>
+        <v>2550505</v>
       </c>
       <c r="F232" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8791,11 +8791,11 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="n">
         <v>2</v>
@@ -8803,26 +8803,26 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B233" t="n">
-        <v>444792</v>
+        <v>653156</v>
       </c>
       <c r="C233" t="n">
-        <v>118686</v>
+        <v>46404</v>
       </c>
       <c r="D233" t="n">
-        <v>228274</v>
+        <v>424726</v>
       </c>
       <c r="E233" t="n">
-        <v>2593082</v>
+        <v>4170378</v>
       </c>
       <c r="F233" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -8834,31 +8834,31 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B234" t="n">
-        <v>421338</v>
+        <v>704729</v>
       </c>
       <c r="C234" t="n">
-        <v>89975</v>
+        <v>406492</v>
       </c>
       <c r="D234" t="n">
-        <v>231954</v>
+        <v>208766</v>
       </c>
       <c r="E234" t="n">
-        <v>400858</v>
+        <v>2399290</v>
       </c>
       <c r="F234" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -8870,31 +8870,31 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B235" t="n">
-        <v>361707</v>
+        <v>407142</v>
       </c>
       <c r="C235" t="n">
-        <v>148376</v>
+        <v>275752</v>
       </c>
       <c r="D235" t="n">
-        <v>149332</v>
+        <v>91973</v>
       </c>
       <c r="E235" t="n">
-        <v>4849724</v>
+        <v>1000251</v>
       </c>
       <c r="F235" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -8906,31 +8906,31 @@
         <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B236" t="n">
-        <v>207789</v>
+        <v>313513</v>
       </c>
       <c r="C236" t="n">
-        <v>87412</v>
+        <v>26840</v>
       </c>
       <c r="D236" t="n">
-        <v>84264</v>
+        <v>200671</v>
       </c>
       <c r="E236" t="n">
-        <v>966816</v>
+        <v>1965018</v>
       </c>
       <c r="F236" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -8942,31 +8942,31 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B237" t="n">
-        <v>438869</v>
+        <v>143523</v>
       </c>
       <c r="C237" t="n">
-        <v>130486</v>
+        <v>87689</v>
       </c>
       <c r="D237" t="n">
-        <v>215868</v>
+        <v>39084</v>
       </c>
       <c r="E237" t="n">
-        <v>674632</v>
+        <v>559428</v>
       </c>
       <c r="F237" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -8978,31 +8978,31 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B238" t="n">
-        <v>726535</v>
+        <v>172627</v>
       </c>
       <c r="C238" t="n">
-        <v>100099</v>
+        <v>111611</v>
       </c>
       <c r="D238" t="n">
-        <v>438505</v>
+        <v>42711</v>
       </c>
       <c r="E238" t="n">
-        <v>5103381</v>
+        <v>281860</v>
       </c>
       <c r="F238" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9014,31 +9014,31 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B239" t="n">
-        <v>390378</v>
+        <v>166892</v>
       </c>
       <c r="C239" t="n">
-        <v>194906</v>
+        <v>105952</v>
       </c>
       <c r="D239" t="n">
-        <v>136830</v>
+        <v>42658</v>
       </c>
       <c r="E239" t="n">
-        <v>429049</v>
+        <v>250875</v>
       </c>
       <c r="F239" t="n">
         <v>21</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9050,31 +9050,31 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B240" t="n">
-        <v>584022</v>
+        <v>661003</v>
       </c>
       <c r="C240" t="n">
-        <v>304462</v>
+        <v>85992</v>
       </c>
       <c r="D240" t="n">
-        <v>195692</v>
+        <v>402508</v>
       </c>
       <c r="E240" t="n">
-        <v>2768945</v>
+        <v>3756882</v>
       </c>
       <c r="F240" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -9086,27 +9086,27 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B241" t="n">
-        <v>389456</v>
+        <v>420428</v>
       </c>
       <c r="C241" t="n">
-        <v>268494</v>
+        <v>217051</v>
       </c>
       <c r="D241" t="n">
-        <v>84673</v>
+        <v>142364</v>
       </c>
       <c r="E241" t="n">
-        <v>376209</v>
+        <v>4287454</v>
       </c>
       <c r="F241" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -9115,11 +9115,11 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="n">
         <v>1</v>
@@ -9127,22 +9127,22 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B242" t="n">
-        <v>339849</v>
+        <v>296298</v>
       </c>
       <c r="C242" t="n">
-        <v>183188</v>
+        <v>76089</v>
       </c>
       <c r="D242" t="n">
-        <v>109663</v>
+        <v>154146</v>
       </c>
       <c r="E242" t="n">
-        <v>1062983</v>
+        <v>1322591</v>
       </c>
       <c r="F242" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -9163,170 +9163,170 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B243" t="n">
-        <v>363527</v>
+        <v>383312</v>
       </c>
       <c r="C243" t="n">
-        <v>123206</v>
+        <v>24406</v>
       </c>
       <c r="D243" t="n">
-        <v>168225</v>
+        <v>251234</v>
       </c>
       <c r="E243" t="n">
-        <v>867112</v>
+        <v>3599776</v>
       </c>
       <c r="F243" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B244" t="n">
-        <v>958741</v>
+        <v>516473</v>
       </c>
       <c r="C244" t="n">
-        <v>160165</v>
+        <v>116874</v>
       </c>
       <c r="D244" t="n">
-        <v>559003</v>
+        <v>279719</v>
       </c>
       <c r="E244" t="n">
-        <v>3728978</v>
+        <v>2202000</v>
       </c>
       <c r="F244" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B245" t="n">
-        <v>622927</v>
+        <v>118662</v>
       </c>
       <c r="C245" t="n">
-        <v>75094</v>
+        <v>23563</v>
       </c>
       <c r="D245" t="n">
-        <v>383483</v>
+        <v>66569</v>
       </c>
       <c r="E245" t="n">
-        <v>112619</v>
+        <v>1433370</v>
       </c>
       <c r="F245" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>aucune</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B246" t="n">
-        <v>889094</v>
+        <v>247526</v>
       </c>
       <c r="C246" t="n">
-        <v>332296</v>
+        <v>69643</v>
       </c>
       <c r="D246" t="n">
-        <v>389759</v>
+        <v>124518</v>
       </c>
       <c r="E246" t="n">
-        <v>2698070</v>
+        <v>1179701</v>
       </c>
       <c r="F246" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>aucune</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>non validé</t>
+          <t>validé</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B247" t="n">
-        <v>971334</v>
+        <v>506424</v>
       </c>
       <c r="C247" t="n">
-        <v>182925</v>
+        <v>107640</v>
       </c>
       <c r="D247" t="n">
-        <v>551886</v>
+        <v>279149</v>
       </c>
       <c r="E247" t="n">
-        <v>5393874</v>
+        <v>520181</v>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -9338,31 +9338,31 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B248" t="n">
-        <v>876930</v>
+        <v>196480</v>
       </c>
       <c r="C248" t="n">
-        <v>369564</v>
+        <v>110188</v>
       </c>
       <c r="D248" t="n">
-        <v>355156</v>
+        <v>60404</v>
       </c>
       <c r="E248" t="n">
-        <v>2552659</v>
+        <v>384638</v>
       </c>
       <c r="F248" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>réelle</t>
+          <t>personnelle</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -9374,27 +9374,27 @@
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B249" t="n">
-        <v>110602</v>
+        <v>681844</v>
       </c>
       <c r="C249" t="n">
-        <v>34741</v>
+        <v>242044</v>
       </c>
       <c r="D249" t="n">
-        <v>53103</v>
+        <v>307860</v>
       </c>
       <c r="E249" t="n">
-        <v>126631</v>
+        <v>7723535</v>
       </c>
       <c r="F249" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -9403,11 +9403,11 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>validé</t>
+          <t>non validé</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
         <v>1</v>
@@ -9415,26 +9415,26 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B250" t="n">
-        <v>339462</v>
+        <v>484647</v>
       </c>
       <c r="C250" t="n">
-        <v>59953</v>
+        <v>306601</v>
       </c>
       <c r="D250" t="n">
-        <v>195656</v>
+        <v>124632</v>
       </c>
       <c r="E250" t="n">
-        <v>3882221</v>
+        <v>341544</v>
       </c>
       <c r="F250" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>personnelle</t>
+          <t>réelle</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -9446,27 +9446,27 @@
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B251" t="n">
-        <v>591862</v>
+        <v>523249</v>
       </c>
       <c r="C251" t="n">
-        <v>141576</v>
+        <v>111793</v>
       </c>
       <c r="D251" t="n">
-        <v>315200</v>
+        <v>288019</v>
       </c>
       <c r="E251" t="n">
-        <v>3027136</v>
+        <v>1124955</v>
       </c>
       <c r="F251" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
